--- a/fechamento_2021/fechamento_outubro/GeralOutubro6.xlsx
+++ b/fechamento_2021/fechamento_outubro/GeralOutubro6.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d788796\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_outubro\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205DB27E-D878-416A-B4FE-F2D95ECAF183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -18,14 +12,14 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$BI$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$BI$125</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="274">
   <si>
     <t>Tosse, Dor de Garganta</t>
   </si>
@@ -84,9 +78,6 @@
     <t>Dor de Garganta</t>
   </si>
   <si>
-    <t>Coriza, Dor de Cabeca, Tosse, Dor de Garganta, Outros</t>
-  </si>
-  <si>
     <t>Coriza, Dor de Cabeca, Febre</t>
   </si>
   <si>
@@ -150,118 +141,19 @@
     <t>Tosse, Dispneia, Coriza</t>
   </si>
   <si>
-    <t>SOFHIA RODRIGUES DA SILVA</t>
-  </si>
-  <si>
-    <t>Dor de Cabeca, Tosse, Disturbios Gustativos</t>
-  </si>
-  <si>
     <t>Coriza, Tosse, Dor de Garganta, Outros</t>
   </si>
   <si>
-    <t>SOLANGE APARECIDA CORTOPASSI PIRES</t>
-  </si>
-  <si>
-    <t>SONIA APARECIDA RODRIGUES DE FREITAS</t>
-  </si>
-  <si>
-    <t>SONIA REGINA DE SOUZA VIANA</t>
-  </si>
-  <si>
     <t>Coriza, Disturbios Gustativos, Tosse</t>
   </si>
   <si>
-    <t>SOPHIA GRAZIELLY DA SILVA SANTOS</t>
-  </si>
-  <si>
     <t>Tosse, Febre, Coriza</t>
   </si>
   <si>
-    <t>SOPHIA HELLEN GALDINO AZEVEDO</t>
-  </si>
-  <si>
-    <t>SORAYA SOARES TATAJUBA DE BARROS</t>
-  </si>
-  <si>
-    <t>Febre, Dispneia, Dor de Garganta, Dor de Cabeca</t>
-  </si>
-  <si>
-    <t>STEFANIE SOARES BARBOSA FERREIRA</t>
-  </si>
-  <si>
-    <t>Dor de Cabeca, Tosse, Dor de Garganta, Outros, Coriza</t>
-  </si>
-  <si>
-    <t>STEFINI JESSICA DA SILVA</t>
-  </si>
-  <si>
-    <t>STELA DE OLIVEIRA SILVA MELO</t>
-  </si>
-  <si>
     <t>Dor de Garganta, Coriza</t>
   </si>
   <si>
-    <t>STEPHANIE PETTERSEN BENICIO CARVALHO</t>
-  </si>
-  <si>
-    <t>STIVE GONCALVES ALMEIDA</t>
-  </si>
-  <si>
-    <t>SUELI REGINA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>Coriza, Dor de Cabeca, Tosse, Febre, Dor de Garganta</t>
-  </si>
-  <si>
-    <t>SUELLEN CARNEIRO SOUZA SILVA</t>
-  </si>
-  <si>
-    <t>SUELLEN DA SILVA</t>
-  </si>
-  <si>
-    <t>SUZAMAR SOARES</t>
-  </si>
-  <si>
-    <t>TAINA DE CASSIA SIMIONI</t>
-  </si>
-  <si>
-    <t>TAINE VALERIA DE ARAUJO SILVA</t>
-  </si>
-  <si>
-    <t>Coriza, Dor de Cabeca, Tosse, Febre</t>
-  </si>
-  <si>
-    <t>TAIS LACERDA</t>
-  </si>
-  <si>
-    <t>TALITA EMANUELE SILVA EVANGELISTA CAETANO</t>
-  </si>
-  <si>
     <t>Tosse, Coriza</t>
-  </si>
-  <si>
-    <t>TALITA LOPES DA SILVA</t>
-  </si>
-  <si>
-    <t>TALITHA SILVA DE MATOS</t>
-  </si>
-  <si>
-    <t>TAMARA CRISITINA LIMA DE SOUZA</t>
-  </si>
-  <si>
-    <t>TAMARA DE OLIVEIRA SANTOS</t>
-  </si>
-  <si>
-    <t>Dor de Cabeca, Tosse, Dispneia, Outros</t>
-  </si>
-  <si>
-    <t>TAMIRES ALVES CANECO</t>
-  </si>
-  <si>
-    <t>TAMIRES F P GIL</t>
-  </si>
-  <si>
-    <t>Coriza, Tosse, Febre, Dispneia, Dor de Cabeca</t>
   </si>
   <si>
     <t>TANIA MARIA BENTO DA COSTA</t>
@@ -954,7 +846,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1032,7 +924,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1070,9 +962,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1105,26 +997,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1157,26 +1032,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1349,11 +1207,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BI125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD87"/>
+      <selection activeCell="A2" sqref="A2:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,207 +1281,222 @@
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="N1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="T1" t="s">
+        <v>232</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="W1" t="s">
+        <v>235</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AI1" t="s">
         <v>247</v>
       </c>
-      <c r="B1" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C1" t="s">
+      <c r="AK1" t="s">
         <v>249</v>
       </c>
-      <c r="D1" t="s">
+      <c r="AL1" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E1" t="s">
+      <c r="AM1" t="s">
         <v>251</v>
       </c>
-      <c r="F1" t="s">
+      <c r="AN1" t="s">
         <v>252</v>
       </c>
-      <c r="G1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="H1" t="s">
+      <c r="AP1" t="s">
         <v>254</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AQ1" t="s">
         <v>255</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AR1" t="s">
         <v>256</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AS1" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="L1" t="s">
+      <c r="AT1" t="s">
         <v>258</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="AU1" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AV1" t="s">
         <v>260</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="AW1" t="s">
         <v>261</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="AX1" t="s">
         <v>262</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AY1" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="AZ1" t="s">
         <v>264</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="BA1" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="T1" t="s">
+      <c r="BB1" t="s">
         <v>266</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="BC1" t="s">
         <v>267</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="BD1" t="s">
         <v>268</v>
       </c>
-      <c r="W1" t="s">
+      <c r="BE1" t="s">
         <v>269</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="BF1" t="s">
         <v>270</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="BG1" t="s">
         <v>271</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="BH1" t="s">
         <v>272</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="BI1" t="s">
         <v>273</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>283</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>285</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>289</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>295</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>296</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>298</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>302</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>303</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>304</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>305</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>306</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>3521102428591</v>
+        <v>3521102241869</v>
       </c>
       <c r="B2" s="2">
-        <v>44475</v>
+        <v>44473</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2">
-        <v>44301</v>
+        <v>23915</v>
       </c>
       <c r="E2" s="2">
-        <v>44472</v>
+        <v>44470</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="G2">
+        <v>2102715591</v>
+      </c>
+      <c r="H2" s="2">
+        <v>44474</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2">
+        <v>44473</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
       </c>
       <c r="M2" s="3"/>
       <c r="O2" s="4"/>
@@ -1635,11 +1508,23 @@
       <c r="AB2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AH2" s="5"/>
-      <c r="AL2" s="5"/>
+      <c r="AL2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>44473</v>
+      </c>
+      <c r="AO2" s="4"/>
       <c r="AS2" s="5"/>
       <c r="AY2" s="5"/>
+      <c r="BG2" t="s">
+        <v>45</v>
+      </c>
       <c r="BH2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="BI2" t="s">
         <v>2</v>
@@ -1647,34 +1532,25 @@
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3521103057530</v>
+        <v>3521103752283</v>
       </c>
       <c r="B3" s="2">
-        <v>44484</v>
+        <v>44493</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2">
-        <v>24822</v>
+        <v>26393</v>
       </c>
       <c r="E3" s="2">
-        <v>44478</v>
+        <v>44489</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3">
-        <v>2102716763</v>
-      </c>
-      <c r="H3" s="2">
-        <v>44484</v>
-      </c>
-      <c r="I3" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="J3" s="2">
-        <v>44484</v>
+        <v>44493</v>
       </c>
       <c r="L3" t="s">
         <v>4</v>
@@ -1696,16 +1572,13 @@
         <v>5</v>
       </c>
       <c r="AN3" s="2">
-        <v>44484</v>
+        <v>44493</v>
       </c>
       <c r="AO3" s="4"/>
       <c r="AS3" s="5"/>
       <c r="AY3" s="5"/>
-      <c r="BG3" t="s">
-        <v>44</v>
-      </c>
       <c r="BH3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI3" t="s">
         <v>2</v>
@@ -1713,28 +1586,22 @@
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3521102248428</v>
+        <v>3521103257952</v>
       </c>
       <c r="B4" s="2">
-        <v>44474</v>
+        <v>44487</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2">
-        <v>21014</v>
+        <v>28648</v>
       </c>
       <c r="E4" s="2">
-        <v>44276</v>
+        <v>44453</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2">
-        <v>44282</v>
-      </c>
-      <c r="L4" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="M4" s="3"/>
       <c r="O4" s="4"/>
@@ -1746,16 +1613,7 @@
       <c r="AB4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AH4" s="5"/>
-      <c r="AL4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>44282</v>
-      </c>
-      <c r="AO4" s="4"/>
+      <c r="AL4" s="5"/>
       <c r="AS4" s="5"/>
       <c r="AY4" s="5"/>
       <c r="BH4" t="s">
@@ -1767,22 +1625,22 @@
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3521103871666</v>
+        <v>3521102294719</v>
       </c>
       <c r="B5" s="2">
-        <v>44494</v>
+        <v>44474</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
-        <v>44494</v>
+        <v>44456</v>
       </c>
       <c r="E5" s="2">
-        <v>44492</v>
+        <v>44471</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M5" s="3"/>
       <c r="O5" s="4"/>
@@ -1798,7 +1656,7 @@
       <c r="AS5" s="5"/>
       <c r="AY5" s="5"/>
       <c r="BH5" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="BI5" t="s">
         <v>2</v>
@@ -1806,22 +1664,37 @@
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3521104151572</v>
+        <v>3521103348946</v>
       </c>
       <c r="B6" s="2">
-        <v>44497</v>
+        <v>44487</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2">
-        <v>42489</v>
+        <v>27629</v>
       </c>
       <c r="E6" s="2">
-        <v>44493</v>
+        <v>44484</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="G6">
+        <v>2102761713</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44488</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>44487</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
       </c>
       <c r="M6" s="3"/>
       <c r="O6" s="4"/>
@@ -1833,11 +1706,23 @@
       <c r="AB6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AH6" s="5"/>
-      <c r="AL6" s="5"/>
+      <c r="AL6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>44487</v>
+      </c>
+      <c r="AO6" s="4"/>
       <c r="AS6" s="5"/>
       <c r="AY6" s="5"/>
+      <c r="BG6" t="s">
+        <v>51</v>
+      </c>
       <c r="BH6" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI6" t="s">
         <v>2</v>
@@ -1845,25 +1730,34 @@
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3521103559872</v>
+        <v>3521102087205</v>
       </c>
       <c r="B7" s="2">
-        <v>44490</v>
+        <v>44471</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2">
-        <v>39969</v>
+        <v>36587</v>
       </c>
       <c r="E7" s="2">
-        <v>44487</v>
+        <v>44471</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>54</v>
+      </c>
+      <c r="G7">
+        <v>2102687609</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44473</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
       </c>
       <c r="J7" s="2">
-        <v>44490</v>
+        <v>44471</v>
       </c>
       <c r="L7" t="s">
         <v>4</v>
@@ -1885,13 +1779,25 @@
         <v>5</v>
       </c>
       <c r="AN7" s="2">
-        <v>44490</v>
+        <v>44471</v>
       </c>
       <c r="AO7" s="4"/>
       <c r="AS7" s="5"/>
       <c r="AY7" s="5"/>
+      <c r="BD7" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF7" s="2">
+        <v>44589</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>53</v>
+      </c>
       <c r="BH7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI7" t="s">
         <v>2</v>
@@ -1899,28 +1805,22 @@
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3521102606078</v>
+        <v>3521102420354</v>
       </c>
       <c r="B8" s="2">
-        <v>44477</v>
+        <v>44470</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2">
-        <v>32335</v>
+        <v>31313</v>
       </c>
       <c r="E8" s="2">
-        <v>44475</v>
+        <v>44469</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="2">
-        <v>44476</v>
-      </c>
-      <c r="L8" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="M8" s="3"/>
       <c r="O8" s="4"/>
@@ -1932,16 +1832,7 @@
       <c r="AB8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AH8" s="5"/>
-      <c r="AL8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>44476</v>
-      </c>
-      <c r="AO8" s="4"/>
+      <c r="AL8" s="5"/>
       <c r="AS8" s="5"/>
       <c r="AY8" s="5"/>
       <c r="BH8" t="s">
@@ -1953,22 +1844,31 @@
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>3521103182005</v>
+        <v>3521102810866</v>
       </c>
       <c r="B9" s="2">
-        <v>44486</v>
+        <v>44481</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2">
-        <v>35051</v>
+        <v>31345</v>
       </c>
       <c r="E9" s="2">
-        <v>44484</v>
+        <v>44477</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>2102738372</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44482</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
       </c>
       <c r="M9" s="3"/>
       <c r="O9" s="4"/>
@@ -1983,8 +1883,11 @@
       <c r="AL9" s="5"/>
       <c r="AS9" s="5"/>
       <c r="AY9" s="5"/>
+      <c r="BG9" t="s">
+        <v>57</v>
+      </c>
       <c r="BH9" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI9" t="s">
         <v>2</v>
@@ -1992,22 +1895,37 @@
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3521103388609</v>
+        <v>3521103320681</v>
       </c>
       <c r="B10" s="2">
         <v>44488</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2">
-        <v>33460</v>
+        <v>36773</v>
       </c>
       <c r="E10" s="2">
-        <v>44486</v>
+        <v>44483</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>60</v>
+      </c>
+      <c r="G10">
+        <v>2102716104</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44488</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>44488</v>
+      </c>
+      <c r="L10" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3"/>
       <c r="O10" s="4"/>
@@ -2019,11 +1937,23 @@
       <c r="AB10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AH10" s="5"/>
-      <c r="AL10" s="5"/>
+      <c r="AL10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>44488</v>
+      </c>
+      <c r="AO10" s="4"/>
       <c r="AS10" s="5"/>
       <c r="AY10" s="5"/>
+      <c r="BG10" t="s">
+        <v>59</v>
+      </c>
       <c r="BH10" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI10" t="s">
         <v>2</v>
@@ -2031,28 +1961,22 @@
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>3521103927120</v>
+        <v>3521104311493</v>
       </c>
       <c r="B11" s="2">
+        <v>44500</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="2">
+        <v>36320</v>
+      </c>
+      <c r="E11" s="2">
         <v>44495</v>
       </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="2">
-        <v>36576</v>
-      </c>
-      <c r="E11" s="2">
-        <v>44489</v>
-      </c>
       <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="2">
-        <v>44491</v>
-      </c>
-      <c r="L11" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M11" s="3"/>
       <c r="O11" s="4"/>
@@ -2064,16 +1988,7 @@
       <c r="AB11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AH11" s="5"/>
-      <c r="AL11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN11" s="2">
-        <v>44491</v>
-      </c>
-      <c r="AO11" s="4"/>
+      <c r="AL11" s="5"/>
       <c r="AS11" s="5"/>
       <c r="AY11" s="5"/>
       <c r="BH11" t="s">
@@ -2085,31 +2000,22 @@
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>3521103540395</v>
+        <v>3521103183042</v>
       </c>
       <c r="B12" s="2">
-        <v>44490</v>
+        <v>44486</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2">
-        <v>35191</v>
+        <v>35285</v>
       </c>
       <c r="E12" s="2">
-        <v>44487</v>
+        <v>44484</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12">
-        <v>2102738891</v>
-      </c>
-      <c r="H12" s="2">
-        <v>44490</v>
-      </c>
-      <c r="I12" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="M12" s="3"/>
       <c r="O12" s="4"/>
@@ -2124,11 +2030,8 @@
       <c r="AL12" s="5"/>
       <c r="AS12" s="5"/>
       <c r="AY12" s="5"/>
-      <c r="BG12" t="s">
-        <v>58</v>
-      </c>
       <c r="BH12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI12" t="s">
         <v>2</v>
@@ -2136,22 +2039,28 @@
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>3521102556383</v>
+        <v>3521103811764</v>
       </c>
       <c r="B13" s="2">
-        <v>44476</v>
+        <v>44494</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D13" s="2">
-        <v>35863</v>
+        <v>23296</v>
       </c>
       <c r="E13" s="2">
-        <v>44474</v>
+        <v>44487</v>
       </c>
       <c r="F13" t="s">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="J13" s="2">
+        <v>44494</v>
+      </c>
+      <c r="L13" t="s">
+        <v>4</v>
       </c>
       <c r="M13" s="3"/>
       <c r="O13" s="4"/>
@@ -2163,7 +2072,16 @@
       <c r="AB13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AH13" s="5"/>
-      <c r="AL13" s="5"/>
+      <c r="AL13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>44494</v>
+      </c>
+      <c r="AO13" s="4"/>
       <c r="AS13" s="5"/>
       <c r="AY13" s="5"/>
       <c r="BH13" t="s">
@@ -2175,31 +2093,28 @@
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>3521103269158</v>
+        <v>3521104134293</v>
       </c>
       <c r="B14" s="2">
-        <v>44487</v>
+        <v>44497</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D14" s="2">
-        <v>25391</v>
+        <v>25649</v>
       </c>
       <c r="E14" s="2">
-        <v>44487</v>
+        <v>44494</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>44487</v>
-      </c>
-      <c r="K14" t="s">
-        <v>12</v>
+        <v>44496</v>
       </c>
       <c r="L14" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M14" s="3"/>
       <c r="O14" s="4"/>
@@ -2212,17 +2127,15 @@
       <c r="AE14" s="5"/>
       <c r="AH14" s="5"/>
       <c r="AL14" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AM14" t="s">
         <v>5</v>
       </c>
       <c r="AN14" s="2">
-        <v>44487</v>
-      </c>
-      <c r="AO14" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>44496</v>
+      </c>
+      <c r="AO14" s="4"/>
       <c r="AS14" s="5"/>
       <c r="AY14" s="5"/>
       <c r="BH14" t="s">
@@ -2234,22 +2147,22 @@
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>3521104025720</v>
+        <v>3521103974930</v>
       </c>
       <c r="B15" s="2">
-        <v>44496</v>
+        <v>44495</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D15" s="2">
-        <v>35737</v>
+        <v>14583</v>
       </c>
       <c r="E15" s="2">
-        <v>44490</v>
+        <v>44466</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M15" s="3"/>
       <c r="O15" s="4"/>
@@ -2273,22 +2186,37 @@
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>3521102669140</v>
+        <v>3521102943343</v>
       </c>
       <c r="B16" s="2">
-        <v>44478</v>
+        <v>44482</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D16" s="2">
-        <v>36427</v>
+        <v>34142</v>
       </c>
       <c r="E16" s="2">
-        <v>44476</v>
+        <v>44479</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>68</v>
+      </c>
+      <c r="G16">
+        <v>2102690981</v>
+      </c>
+      <c r="H16" s="2">
+        <v>44483</v>
+      </c>
+      <c r="I16" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>44482</v>
+      </c>
+      <c r="L16" t="s">
+        <v>4</v>
       </c>
       <c r="M16" s="3"/>
       <c r="O16" s="4"/>
@@ -2300,11 +2228,23 @@
       <c r="AB16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AH16" s="5"/>
-      <c r="AL16" s="5"/>
+      <c r="AL16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>44482</v>
+      </c>
+      <c r="AO16" s="4"/>
       <c r="AS16" s="5"/>
       <c r="AY16" s="5"/>
+      <c r="BG16" t="s">
+        <v>67</v>
+      </c>
       <c r="BH16" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI16" t="s">
         <v>2</v>
@@ -2312,25 +2252,25 @@
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>3521103084336</v>
+        <v>3521104217272</v>
       </c>
       <c r="B17" s="2">
-        <v>44484</v>
+        <v>44497</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D17" s="2">
-        <v>31624</v>
+        <v>41384</v>
       </c>
       <c r="E17" s="2">
-        <v>44479</v>
+        <v>44494</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J17" s="2">
-        <v>44484</v>
+        <v>44497</v>
       </c>
       <c r="L17" t="s">
         <v>4</v>
@@ -2352,7 +2292,7 @@
         <v>5</v>
       </c>
       <c r="AN17" s="2">
-        <v>44484</v>
+        <v>44497</v>
       </c>
       <c r="AO17" s="4"/>
       <c r="AS17" s="5"/>
@@ -2366,25 +2306,25 @@
     </row>
     <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>3521102217726</v>
+        <v>3521102174404</v>
       </c>
       <c r="B18" s="2">
         <v>44473</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D18" s="2">
-        <v>35370</v>
+        <v>33885</v>
       </c>
       <c r="E18" s="2">
-        <v>44473</v>
+        <v>44468</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="G18">
-        <v>2102715511</v>
+        <v>2102686692</v>
       </c>
       <c r="H18" s="2">
         <v>44474</v>
@@ -2393,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="2">
-        <v>44471</v>
+        <v>44473</v>
       </c>
       <c r="L18" t="s">
         <v>4</v>
@@ -2415,13 +2355,13 @@
         <v>5</v>
       </c>
       <c r="AN18" s="2">
-        <v>44471</v>
+        <v>44473</v>
       </c>
       <c r="AO18" s="4"/>
       <c r="AS18" s="5"/>
       <c r="AY18" s="5"/>
       <c r="BG18" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="BH18" t="s">
         <v>7</v>
@@ -2432,28 +2372,31 @@
     </row>
     <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>3521104085189</v>
+        <v>3521102928589</v>
       </c>
       <c r="B19" s="2">
-        <v>44496</v>
+        <v>44482</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D19" s="2">
-        <v>35871</v>
+        <v>36976</v>
       </c>
       <c r="E19" s="2">
-        <v>44495</v>
+        <v>44479</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="2">
-        <v>44496</v>
-      </c>
-      <c r="L19" t="s">
-        <v>4</v>
+        <v>26</v>
+      </c>
+      <c r="G19">
+        <v>2102738415</v>
+      </c>
+      <c r="H19" s="2">
+        <v>44483</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
       </c>
       <c r="M19" s="3"/>
       <c r="O19" s="4"/>
@@ -2465,20 +2408,14 @@
       <c r="AB19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AH19" s="5"/>
-      <c r="AL19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN19" s="2">
-        <v>44496</v>
-      </c>
-      <c r="AO19" s="4"/>
+      <c r="AL19" s="5"/>
       <c r="AS19" s="5"/>
       <c r="AY19" s="5"/>
+      <c r="BG19" t="s">
+        <v>73</v>
+      </c>
       <c r="BH19" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI19" t="s">
         <v>2</v>
@@ -2486,31 +2423,22 @@
     </row>
     <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>3521102877581</v>
+        <v>3521103046156</v>
       </c>
       <c r="B20" s="2">
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2">
-        <v>35257</v>
+        <v>28972</v>
       </c>
       <c r="E20" s="2">
-        <v>44478</v>
+        <v>44480</v>
       </c>
       <c r="F20" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>2102706509</v>
-      </c>
-      <c r="H20" s="2">
-        <v>44482</v>
-      </c>
-      <c r="I20" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="M20" s="3"/>
       <c r="O20" s="4"/>
@@ -2525,11 +2453,8 @@
       <c r="AL20" s="5"/>
       <c r="AS20" s="5"/>
       <c r="AY20" s="5"/>
-      <c r="BG20" t="s">
-        <v>68</v>
-      </c>
       <c r="BH20" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="BI20" t="s">
         <v>2</v>
@@ -2537,31 +2462,28 @@
     </row>
     <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>3521103118480</v>
+        <v>3521104111653</v>
       </c>
       <c r="B21" s="2">
-        <v>44484</v>
+        <v>44496</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2">
-        <v>32403</v>
+        <v>36922</v>
       </c>
       <c r="E21" s="2">
-        <v>44476</v>
+        <v>44495</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21">
-        <v>2102735431</v>
-      </c>
-      <c r="H21" s="2">
-        <v>44485</v>
-      </c>
-      <c r="I21" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>44496</v>
+      </c>
+      <c r="L21" t="s">
+        <v>4</v>
       </c>
       <c r="M21" s="3"/>
       <c r="O21" s="4"/>
@@ -2573,14 +2495,20 @@
       <c r="AB21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AH21" s="5"/>
-      <c r="AL21" s="5"/>
+      <c r="AL21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN21" s="2">
+        <v>44496</v>
+      </c>
+      <c r="AO21" s="4"/>
       <c r="AS21" s="5"/>
       <c r="AY21" s="5"/>
-      <c r="BG21" t="s">
-        <v>69</v>
-      </c>
       <c r="BH21" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI21" t="s">
         <v>2</v>
@@ -2588,31 +2516,37 @@
     </row>
     <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>3521103565438</v>
+        <v>3521102757622</v>
       </c>
       <c r="B22" s="2">
-        <v>44490</v>
+        <v>44480</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2">
-        <v>30872</v>
+        <v>33975</v>
       </c>
       <c r="E22" s="2">
-        <v>44485</v>
+        <v>44478</v>
       </c>
       <c r="F22" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G22">
-        <v>2102735324</v>
+        <v>2102716710</v>
       </c>
       <c r="H22" s="2">
-        <v>44490</v>
+        <v>44481</v>
       </c>
       <c r="I22" t="s">
         <v>3</v>
+      </c>
+      <c r="J22" s="2">
+        <v>44480</v>
+      </c>
+      <c r="L22" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3"/>
       <c r="O22" s="4"/>
@@ -2624,11 +2558,20 @@
       <c r="AB22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AH22" s="5"/>
-      <c r="AL22" s="5"/>
+      <c r="AL22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN22" s="2">
+        <v>44480</v>
+      </c>
+      <c r="AO22" s="4"/>
       <c r="AS22" s="5"/>
       <c r="AY22" s="5"/>
       <c r="BG22" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="BH22" t="s">
         <v>7</v>
@@ -2639,37 +2582,31 @@
     </row>
     <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>3521102502701</v>
+        <v>3521104073963</v>
       </c>
       <c r="B23" s="2">
-        <v>44475</v>
+        <v>44496</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2">
-        <v>32898</v>
+        <v>30972</v>
       </c>
       <c r="E23" s="2">
-        <v>44469</v>
+        <v>44492</v>
       </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23">
-        <v>2102723265</v>
-      </c>
-      <c r="H23" s="2">
-        <v>44475</v>
-      </c>
-      <c r="I23" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J23" s="2">
-        <v>44469</v>
+        <v>44495</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
       </c>
       <c r="L23" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M23" s="3"/>
       <c r="O23" s="4"/>
@@ -2682,22 +2619,21 @@
       <c r="AE23" s="5"/>
       <c r="AH23" s="5"/>
       <c r="AL23" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AM23" t="s">
         <v>5</v>
       </c>
       <c r="AN23" s="2">
-        <v>44469</v>
-      </c>
-      <c r="AO23" s="4"/>
+        <v>44495</v>
+      </c>
+      <c r="AO23" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AS23" s="5"/>
       <c r="AY23" s="5"/>
-      <c r="BG23" t="s">
-        <v>72</v>
-      </c>
       <c r="BH23" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI23" t="s">
         <v>2</v>
@@ -2705,22 +2641,31 @@
     </row>
     <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>3521104183386</v>
+        <v>3521103887516</v>
       </c>
       <c r="B24" s="2">
-        <v>44497</v>
+        <v>44495</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D24" s="2">
-        <v>33394</v>
+        <v>35468</v>
       </c>
       <c r="E24" s="2">
-        <v>44492</v>
+        <v>44479</v>
       </c>
       <c r="F24" t="s">
-        <v>70</v>
+        <v>80</v>
+      </c>
+      <c r="G24">
+        <v>2102651566</v>
+      </c>
+      <c r="H24" s="2">
+        <v>44456</v>
+      </c>
+      <c r="I24" t="s">
+        <v>3</v>
       </c>
       <c r="M24" s="3"/>
       <c r="O24" s="4"/>
@@ -2735,8 +2680,11 @@
       <c r="AL24" s="5"/>
       <c r="AS24" s="5"/>
       <c r="AY24" s="5"/>
+      <c r="BG24" t="s">
+        <v>79</v>
+      </c>
       <c r="BH24" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI24" t="s">
         <v>2</v>
@@ -2744,28 +2692,22 @@
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>3521104123016</v>
+        <v>3521102351767</v>
       </c>
       <c r="B25" s="2">
-        <v>44497</v>
+        <v>44474</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2">
-        <v>36002</v>
+        <v>34209</v>
       </c>
       <c r="E25" s="2">
-        <v>44493</v>
+        <v>44471</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25" s="2">
-        <v>44496</v>
-      </c>
-      <c r="L25" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="M25" s="3"/>
       <c r="O25" s="4"/>
@@ -2777,28 +2719,8 @@
       <c r="AB25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AH25" s="5"/>
-      <c r="AL25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN25" s="2">
-        <v>44496</v>
-      </c>
-      <c r="AO25" s="4"/>
-      <c r="AR25" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT25" s="2">
-        <v>44496</v>
-      </c>
-      <c r="AU25" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="AL25" s="5"/>
+      <c r="AS25" s="5"/>
       <c r="AY25" s="5"/>
       <c r="BH25" t="s">
         <v>1</v>
@@ -2809,31 +2731,28 @@
     </row>
     <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>3521102558436</v>
+        <v>3521104182370</v>
       </c>
       <c r="B26" s="2">
-        <v>44476</v>
+        <v>44497</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D26" s="2">
-        <v>32307</v>
+        <v>38362</v>
       </c>
       <c r="E26" s="2">
-        <v>44383</v>
+        <v>44495</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <v>2102672776</v>
-      </c>
-      <c r="H26" s="2">
-        <v>44477</v>
-      </c>
-      <c r="I26" t="s">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="J26" s="2">
+        <v>44497</v>
+      </c>
+      <c r="L26" t="s">
+        <v>4</v>
       </c>
       <c r="M26" s="3"/>
       <c r="O26" s="4"/>
@@ -2845,14 +2764,20 @@
       <c r="AB26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AH26" s="5"/>
-      <c r="AL26" s="5"/>
+      <c r="AL26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN26" s="2">
+        <v>44497</v>
+      </c>
+      <c r="AO26" s="4"/>
       <c r="AS26" s="5"/>
       <c r="AY26" s="5"/>
-      <c r="BG26" t="s">
-        <v>76</v>
-      </c>
       <c r="BH26" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI26" t="s">
         <v>2</v>
@@ -2860,22 +2785,37 @@
     </row>
     <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>3521102697581</v>
+        <v>3521102535120</v>
       </c>
       <c r="B27" s="2">
-        <v>44479</v>
+        <v>44476</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D27" s="2">
-        <v>34193</v>
+        <v>31672</v>
       </c>
       <c r="E27" s="2">
-        <v>44467</v>
+        <v>44473</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>31</v>
+      </c>
+      <c r="G27">
+        <v>2102715623</v>
+      </c>
+      <c r="H27" s="2">
+        <v>44477</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="2">
+        <v>44476</v>
+      </c>
+      <c r="L27" t="s">
+        <v>4</v>
       </c>
       <c r="M27" s="3"/>
       <c r="O27" s="4"/>
@@ -2887,11 +2827,23 @@
       <c r="AB27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AH27" s="5"/>
-      <c r="AL27" s="5"/>
+      <c r="AL27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN27" s="2">
+        <v>44476</v>
+      </c>
+      <c r="AO27" s="4"/>
       <c r="AS27" s="5"/>
       <c r="AY27" s="5"/>
+      <c r="BG27" t="s">
+        <v>84</v>
+      </c>
       <c r="BH27" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI27" t="s">
         <v>2</v>
@@ -2899,37 +2851,22 @@
     </row>
     <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>3521102241869</v>
+        <v>3521102061246</v>
       </c>
       <c r="B28" s="2">
-        <v>44473</v>
+        <v>44470</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2">
-        <v>23915</v>
+        <v>37268</v>
       </c>
       <c r="E28" s="2">
-        <v>44470</v>
+        <v>44464</v>
       </c>
       <c r="F28" t="s">
         <v>80</v>
-      </c>
-      <c r="G28">
-        <v>2102715591</v>
-      </c>
-      <c r="H28" s="2">
-        <v>44474</v>
-      </c>
-      <c r="I28" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" s="2">
-        <v>44473</v>
-      </c>
-      <c r="L28" t="s">
-        <v>4</v>
       </c>
       <c r="M28" s="3"/>
       <c r="O28" s="4"/>
@@ -2941,23 +2878,11 @@
       <c r="AB28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AH28" s="5"/>
-      <c r="AL28" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN28" s="2">
-        <v>44473</v>
-      </c>
-      <c r="AO28" s="4"/>
+      <c r="AL28" s="5"/>
       <c r="AS28" s="5"/>
       <c r="AY28" s="5"/>
-      <c r="BG28" t="s">
-        <v>79</v>
-      </c>
       <c r="BH28" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="BI28" t="s">
         <v>2</v>
@@ -2965,25 +2890,25 @@
     </row>
     <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>3521103752283</v>
+        <v>3521103233656</v>
       </c>
       <c r="B29" s="2">
-        <v>44493</v>
+        <v>44487</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D29" s="2">
-        <v>26393</v>
+        <v>36720</v>
       </c>
       <c r="E29" s="2">
-        <v>44489</v>
+        <v>44478</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="J29" s="2">
-        <v>44493</v>
+        <v>44484</v>
       </c>
       <c r="L29" t="s">
         <v>4</v>
@@ -3005,7 +2930,7 @@
         <v>5</v>
       </c>
       <c r="AN29" s="2">
-        <v>44493</v>
+        <v>44484</v>
       </c>
       <c r="AO29" s="4"/>
       <c r="AS29" s="5"/>
@@ -3019,22 +2944,28 @@
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>3521103257952</v>
+        <v>3521102575496</v>
       </c>
       <c r="B30" s="2">
-        <v>44487</v>
+        <v>44476</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D30" s="2">
-        <v>28648</v>
+        <v>34310</v>
       </c>
       <c r="E30" s="2">
-        <v>44453</v>
+        <v>44473</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="J30" s="2">
+        <v>44476</v>
+      </c>
+      <c r="L30" t="s">
+        <v>4</v>
       </c>
       <c r="M30" s="3"/>
       <c r="O30" s="4"/>
@@ -3046,7 +2977,16 @@
       <c r="AB30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AH30" s="5"/>
-      <c r="AL30" s="5"/>
+      <c r="AL30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>44476</v>
+      </c>
+      <c r="AO30" s="4"/>
       <c r="AS30" s="5"/>
       <c r="AY30" s="5"/>
       <c r="BH30" t="s">
@@ -3058,22 +2998,37 @@
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>3521102294719</v>
+        <v>3521103072508</v>
       </c>
       <c r="B31" s="2">
-        <v>44474</v>
+        <v>44483</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D31" s="2">
-        <v>44456</v>
+        <v>37373</v>
       </c>
       <c r="E31" s="2">
-        <v>44471</v>
+        <v>44480</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>91</v>
+      </c>
+      <c r="G31">
+        <v>2102723307</v>
+      </c>
+      <c r="H31" s="2">
+        <v>44484</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="2">
+        <v>44483</v>
+      </c>
+      <c r="L31" t="s">
+        <v>4</v>
       </c>
       <c r="M31" s="3"/>
       <c r="O31" s="4"/>
@@ -3085,11 +3040,23 @@
       <c r="AB31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AH31" s="5"/>
-      <c r="AL31" s="5"/>
+      <c r="AL31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>44483</v>
+      </c>
+      <c r="AO31" s="4"/>
       <c r="AS31" s="5"/>
       <c r="AY31" s="5"/>
+      <c r="BG31" t="s">
+        <v>90</v>
+      </c>
       <c r="BH31" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI31" t="s">
         <v>2</v>
@@ -3097,34 +3064,34 @@
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>3521103348946</v>
+        <v>3521102268131</v>
       </c>
       <c r="B32" s="2">
-        <v>44487</v>
+        <v>44473</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D32" s="2">
-        <v>27629</v>
+        <v>38043</v>
       </c>
       <c r="E32" s="2">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G32">
-        <v>2102761713</v>
+        <v>2102682681</v>
       </c>
       <c r="H32" s="2">
-        <v>44488</v>
+        <v>44473</v>
       </c>
       <c r="I32" t="s">
         <v>3</v>
       </c>
       <c r="J32" s="2">
-        <v>44487</v>
+        <v>44473</v>
       </c>
       <c r="L32" t="s">
         <v>4</v>
@@ -3146,13 +3113,13 @@
         <v>5</v>
       </c>
       <c r="AN32" s="2">
-        <v>44487</v>
+        <v>44473</v>
       </c>
       <c r="AO32" s="4"/>
       <c r="AS32" s="5"/>
       <c r="AY32" s="5"/>
       <c r="BG32" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="BH32" t="s">
         <v>7</v>
@@ -3163,37 +3130,31 @@
     </row>
     <row r="33" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>3521102087205</v>
+        <v>3521102802092</v>
       </c>
       <c r="B33" s="2">
-        <v>44471</v>
+        <v>44481</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D33" s="2">
-        <v>36587</v>
+        <v>36414</v>
       </c>
       <c r="E33" s="2">
-        <v>44471</v>
+        <v>44477</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33">
-        <v>2102687609</v>
-      </c>
-      <c r="H33" s="2">
-        <v>44473</v>
-      </c>
-      <c r="I33" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J33" s="2">
-        <v>44471</v>
+        <v>44480</v>
+      </c>
+      <c r="K33" t="s">
+        <v>12</v>
       </c>
       <c r="L33" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M33" s="3"/>
       <c r="O33" s="4"/>
@@ -3206,31 +3167,21 @@
       <c r="AE33" s="5"/>
       <c r="AH33" s="5"/>
       <c r="AL33" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AM33" t="s">
         <v>5</v>
       </c>
       <c r="AN33" s="2">
-        <v>44471</v>
-      </c>
-      <c r="AO33" s="4"/>
+        <v>44480</v>
+      </c>
+      <c r="AO33" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AS33" s="5"/>
       <c r="AY33" s="5"/>
-      <c r="BD33" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE33" t="s">
-        <v>26</v>
-      </c>
-      <c r="BF33" s="2">
-        <v>44589</v>
-      </c>
-      <c r="BG33" t="s">
-        <v>87</v>
-      </c>
       <c r="BH33" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI33" t="s">
         <v>2</v>
@@ -3238,22 +3189,31 @@
     </row>
     <row r="34" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>3521102420354</v>
+        <v>3521103503418</v>
       </c>
       <c r="B34" s="2">
-        <v>44470</v>
+        <v>44489</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2">
-        <v>31313</v>
+        <v>35255</v>
       </c>
       <c r="E34" s="2">
-        <v>44469</v>
+        <v>44486</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>68</v>
+      </c>
+      <c r="G34">
+        <v>2102738299</v>
+      </c>
+      <c r="H34" s="2">
+        <v>44490</v>
+      </c>
+      <c r="I34" t="s">
+        <v>3</v>
       </c>
       <c r="M34" s="3"/>
       <c r="O34" s="4"/>
@@ -3268,8 +3228,11 @@
       <c r="AL34" s="5"/>
       <c r="AS34" s="5"/>
       <c r="AY34" s="5"/>
+      <c r="BG34" t="s">
+        <v>95</v>
+      </c>
       <c r="BH34" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI34" t="s">
         <v>2</v>
@@ -3277,31 +3240,22 @@
     </row>
     <row r="35" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>3521102810866</v>
+        <v>3521102538910</v>
       </c>
       <c r="B35" s="2">
-        <v>44481</v>
+        <v>44476</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D35" s="2">
-        <v>31345</v>
+        <v>35614</v>
       </c>
       <c r="E35" s="2">
-        <v>44477</v>
+        <v>44462</v>
       </c>
       <c r="F35" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35">
-        <v>2102738372</v>
-      </c>
-      <c r="H35" s="2">
-        <v>44482</v>
-      </c>
-      <c r="I35" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="M35" s="3"/>
       <c r="O35" s="4"/>
@@ -3316,11 +3270,8 @@
       <c r="AL35" s="5"/>
       <c r="AS35" s="5"/>
       <c r="AY35" s="5"/>
-      <c r="BG35" t="s">
-        <v>91</v>
-      </c>
       <c r="BH35" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI35" t="s">
         <v>2</v>
@@ -3328,25 +3279,25 @@
     </row>
     <row r="36" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>3521103320681</v>
+        <v>3521103354360</v>
       </c>
       <c r="B36" s="2">
         <v>44488</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D36" s="2">
-        <v>36773</v>
+        <v>36298</v>
       </c>
       <c r="E36" s="2">
-        <v>44483</v>
+        <v>44487</v>
       </c>
       <c r="F36" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G36">
-        <v>2102716104</v>
+        <v>2102716231</v>
       </c>
       <c r="H36" s="2">
         <v>44488</v>
@@ -3383,7 +3334,7 @@
       <c r="AS36" s="5"/>
       <c r="AY36" s="5"/>
       <c r="BG36" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="BH36" t="s">
         <v>7</v>
@@ -3394,22 +3345,37 @@
     </row>
     <row r="37" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>3521104311493</v>
+        <v>3521102206579</v>
       </c>
       <c r="B37" s="2">
-        <v>44500</v>
+        <v>44473</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D37" s="2">
-        <v>36320</v>
+        <v>43889</v>
       </c>
       <c r="E37" s="2">
-        <v>44495</v>
+        <v>44470</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>21</v>
+      </c>
+      <c r="G37">
+        <v>2102716688</v>
+      </c>
+      <c r="H37" s="2">
+        <v>44474</v>
+      </c>
+      <c r="I37" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="2">
+        <v>44473</v>
+      </c>
+      <c r="L37" t="s">
+        <v>4</v>
       </c>
       <c r="M37" s="3"/>
       <c r="O37" s="4"/>
@@ -3421,11 +3387,32 @@
       <c r="AB37" s="5"/>
       <c r="AE37" s="5"/>
       <c r="AH37" s="5"/>
-      <c r="AL37" s="5"/>
+      <c r="AL37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>44473</v>
+      </c>
+      <c r="AO37" s="4"/>
       <c r="AS37" s="5"/>
       <c r="AY37" s="5"/>
+      <c r="BD37" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE37" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF37" s="2">
+        <v>44476</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>99</v>
+      </c>
       <c r="BH37" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI37" t="s">
         <v>2</v>
@@ -3433,22 +3420,31 @@
     </row>
     <row r="38" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>3521103183042</v>
+        <v>3521103801078</v>
       </c>
       <c r="B38" s="2">
-        <v>44486</v>
+        <v>44494</v>
       </c>
       <c r="C38" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D38" s="2">
-        <v>35285</v>
+        <v>42473</v>
       </c>
       <c r="E38" s="2">
-        <v>44484</v>
+        <v>44491</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>41</v>
+      </c>
+      <c r="J38" s="2">
+        <v>44494</v>
+      </c>
+      <c r="K38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L38" t="s">
+        <v>9</v>
       </c>
       <c r="M38" s="3"/>
       <c r="O38" s="4"/>
@@ -3460,11 +3456,22 @@
       <c r="AB38" s="5"/>
       <c r="AE38" s="5"/>
       <c r="AH38" s="5"/>
-      <c r="AL38" s="5"/>
+      <c r="AL38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>44494</v>
+      </c>
+      <c r="AO38" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AS38" s="5"/>
       <c r="AY38" s="5"/>
       <c r="BH38" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="BI38" t="s">
         <v>2</v>
@@ -3472,28 +3479,22 @@
     </row>
     <row r="39" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>3521103811764</v>
+        <v>3521103877812</v>
       </c>
       <c r="B39" s="2">
         <v>44494</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D39" s="2">
-        <v>23296</v>
+        <v>40506</v>
       </c>
       <c r="E39" s="2">
-        <v>44487</v>
+        <v>44493</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
-      </c>
-      <c r="J39" s="2">
-        <v>44494</v>
-      </c>
-      <c r="L39" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M39" s="3"/>
       <c r="O39" s="4"/>
@@ -3505,16 +3506,7 @@
       <c r="AB39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AH39" s="5"/>
-      <c r="AL39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM39" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN39" s="2">
-        <v>44494</v>
-      </c>
-      <c r="AO39" s="4"/>
+      <c r="AL39" s="5"/>
       <c r="AS39" s="5"/>
       <c r="AY39" s="5"/>
       <c r="BH39" t="s">
@@ -3526,25 +3518,25 @@
     </row>
     <row r="40" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>3521104134293</v>
+        <v>3521103735585</v>
       </c>
       <c r="B40" s="2">
-        <v>44497</v>
+        <v>44492</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D40" s="2">
-        <v>25649</v>
+        <v>34789</v>
       </c>
       <c r="E40" s="2">
-        <v>44494</v>
+        <v>44487</v>
       </c>
       <c r="F40" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="J40" s="2">
-        <v>44496</v>
+        <v>44492</v>
       </c>
       <c r="L40" t="s">
         <v>4</v>
@@ -3566,7 +3558,7 @@
         <v>5</v>
       </c>
       <c r="AN40" s="2">
-        <v>44496</v>
+        <v>44492</v>
       </c>
       <c r="AO40" s="4"/>
       <c r="AS40" s="5"/>
@@ -3580,22 +3572,28 @@
     </row>
     <row r="41" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>3521103974930</v>
+        <v>3521103518025</v>
       </c>
       <c r="B41" s="2">
-        <v>44495</v>
+        <v>44489</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D41" s="2">
-        <v>14583</v>
+        <v>33322</v>
       </c>
       <c r="E41" s="2">
-        <v>44466</v>
+        <v>44488</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>105</v>
+      </c>
+      <c r="J41" s="2">
+        <v>44489</v>
+      </c>
+      <c r="L41" t="s">
+        <v>4</v>
       </c>
       <c r="M41" s="3"/>
       <c r="O41" s="4"/>
@@ -3607,7 +3605,16 @@
       <c r="AB41" s="5"/>
       <c r="AE41" s="5"/>
       <c r="AH41" s="5"/>
-      <c r="AL41" s="5"/>
+      <c r="AL41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN41" s="2">
+        <v>44489</v>
+      </c>
+      <c r="AO41" s="4"/>
       <c r="AS41" s="5"/>
       <c r="AY41" s="5"/>
       <c r="BH41" t="s">
@@ -3619,34 +3626,25 @@
     </row>
     <row r="42" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>3521102943343</v>
+        <v>3521104281990</v>
       </c>
       <c r="B42" s="2">
-        <v>44482</v>
+        <v>44498</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D42" s="2">
-        <v>34142</v>
+        <v>16346</v>
       </c>
       <c r="E42" s="2">
-        <v>44479</v>
+        <v>44492</v>
       </c>
       <c r="F42" t="s">
-        <v>102</v>
-      </c>
-      <c r="G42">
-        <v>2102690981</v>
-      </c>
-      <c r="H42" s="2">
-        <v>44483</v>
-      </c>
-      <c r="I42" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J42" s="2">
-        <v>44482</v>
+        <v>44498</v>
       </c>
       <c r="L42" t="s">
         <v>4</v>
@@ -3668,16 +3666,13 @@
         <v>5</v>
       </c>
       <c r="AN42" s="2">
-        <v>44482</v>
+        <v>44498</v>
       </c>
       <c r="AO42" s="4"/>
       <c r="AS42" s="5"/>
       <c r="AY42" s="5"/>
-      <c r="BG42" t="s">
-        <v>101</v>
-      </c>
       <c r="BH42" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI42" t="s">
         <v>2</v>
@@ -3685,28 +3680,22 @@
     </row>
     <row r="43" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>3521104217272</v>
+        <v>3521102796411</v>
       </c>
       <c r="B43" s="2">
-        <v>44497</v>
+        <v>44480</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D43" s="2">
-        <v>41384</v>
+        <v>31527</v>
       </c>
       <c r="E43" s="2">
-        <v>44494</v>
+        <v>44478</v>
       </c>
       <c r="F43" t="s">
-        <v>104</v>
-      </c>
-      <c r="J43" s="2">
-        <v>44497</v>
-      </c>
-      <c r="L43" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="M43" s="3"/>
       <c r="O43" s="4"/>
@@ -3718,16 +3707,7 @@
       <c r="AB43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AH43" s="5"/>
-      <c r="AL43" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM43" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN43" s="2">
-        <v>44497</v>
-      </c>
-      <c r="AO43" s="4"/>
+      <c r="AL43" s="5"/>
       <c r="AS43" s="5"/>
       <c r="AY43" s="5"/>
       <c r="BH43" t="s">
@@ -3739,34 +3719,34 @@
     </row>
     <row r="44" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>3521102174404</v>
+        <v>3521102649086</v>
       </c>
       <c r="B44" s="2">
-        <v>44473</v>
+        <v>44477</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D44" s="2">
-        <v>33885</v>
+        <v>26076</v>
       </c>
       <c r="E44" s="2">
-        <v>44468</v>
+        <v>44470</v>
       </c>
       <c r="F44" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="G44">
-        <v>2102686692</v>
+        <v>2102715471</v>
       </c>
       <c r="H44" s="2">
-        <v>44474</v>
+        <v>44478</v>
       </c>
       <c r="I44" t="s">
         <v>3</v>
       </c>
       <c r="J44" s="2">
-        <v>44473</v>
+        <v>44477</v>
       </c>
       <c r="L44" t="s">
         <v>4</v>
@@ -3788,13 +3768,13 @@
         <v>5</v>
       </c>
       <c r="AN44" s="2">
-        <v>44473</v>
+        <v>44477</v>
       </c>
       <c r="AO44" s="4"/>
       <c r="AS44" s="5"/>
       <c r="AY44" s="5"/>
       <c r="BG44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="BH44" t="s">
         <v>7</v>
@@ -3805,31 +3785,31 @@
     </row>
     <row r="45" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>3521102928589</v>
+        <v>3521102683860</v>
       </c>
       <c r="B45" s="2">
-        <v>44482</v>
+        <v>44478</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D45" s="2">
-        <v>36976</v>
+        <v>32562</v>
       </c>
       <c r="E45" s="2">
-        <v>44479</v>
+        <v>44476</v>
       </c>
       <c r="F45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45">
-        <v>2102738415</v>
-      </c>
-      <c r="H45" s="2">
-        <v>44483</v>
-      </c>
-      <c r="I45" t="s">
-        <v>3</v>
+        <v>110</v>
+      </c>
+      <c r="J45" s="2">
+        <v>44478</v>
+      </c>
+      <c r="K45" t="s">
+        <v>12</v>
+      </c>
+      <c r="L45" t="s">
+        <v>9</v>
       </c>
       <c r="M45" s="3"/>
       <c r="O45" s="4"/>
@@ -3841,14 +3821,25 @@
       <c r="AB45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AH45" s="5"/>
-      <c r="AL45" s="5"/>
+      <c r="AL45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN45" s="2">
+        <v>44478</v>
+      </c>
+      <c r="AO45" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AS45" s="5"/>
       <c r="AY45" s="5"/>
-      <c r="BG45" t="s">
-        <v>107</v>
+      <c r="BE45" t="s">
+        <v>14</v>
       </c>
       <c r="BH45" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="BI45" t="s">
         <v>2</v>
@@ -3856,22 +3847,37 @@
     </row>
     <row r="46" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>3521103046156</v>
+        <v>3521102434902</v>
       </c>
       <c r="B46" s="2">
-        <v>44484</v>
+        <v>44475</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D46" s="2">
-        <v>28972</v>
+        <v>27867</v>
       </c>
       <c r="E46" s="2">
-        <v>44480</v>
+        <v>44472</v>
       </c>
       <c r="F46" t="s">
-        <v>109</v>
+        <v>39</v>
+      </c>
+      <c r="G46">
+        <v>2102715699</v>
+      </c>
+      <c r="H46" s="2">
+        <v>44476</v>
+      </c>
+      <c r="I46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="2">
+        <v>44475</v>
+      </c>
+      <c r="L46" t="s">
+        <v>4</v>
       </c>
       <c r="M46" s="3"/>
       <c r="O46" s="4"/>
@@ -3883,11 +3889,23 @@
       <c r="AB46" s="5"/>
       <c r="AE46" s="5"/>
       <c r="AH46" s="5"/>
-      <c r="AL46" s="5"/>
+      <c r="AL46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN46" s="2">
+        <v>44475</v>
+      </c>
+      <c r="AO46" s="4"/>
       <c r="AS46" s="5"/>
       <c r="AY46" s="5"/>
+      <c r="BG46" t="s">
+        <v>111</v>
+      </c>
       <c r="BH46" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="BI46" t="s">
         <v>2</v>
@@ -3895,28 +3913,22 @@
     </row>
     <row r="47" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>3521104111653</v>
+        <v>3521102600418</v>
       </c>
       <c r="B47" s="2">
-        <v>44496</v>
+        <v>44477</v>
       </c>
       <c r="C47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D47" s="2">
-        <v>36922</v>
+        <v>32211</v>
       </c>
       <c r="E47" s="2">
-        <v>44495</v>
+        <v>44475</v>
       </c>
       <c r="F47" t="s">
-        <v>0</v>
-      </c>
-      <c r="J47" s="2">
-        <v>44496</v>
-      </c>
-      <c r="L47" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M47" s="3"/>
       <c r="O47" s="4"/>
@@ -3928,16 +3940,7 @@
       <c r="AB47" s="5"/>
       <c r="AE47" s="5"/>
       <c r="AH47" s="5"/>
-      <c r="AL47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN47" s="2">
-        <v>44496</v>
-      </c>
-      <c r="AO47" s="4"/>
+      <c r="AL47" s="5"/>
       <c r="AS47" s="5"/>
       <c r="AY47" s="5"/>
       <c r="BH47" t="s">
@@ -3949,34 +3952,25 @@
     </row>
     <row r="48" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>3521102757622</v>
+        <v>3521102676255</v>
       </c>
       <c r="B48" s="2">
-        <v>44480</v>
+        <v>44477</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D48" s="2">
-        <v>33975</v>
+        <v>43344</v>
       </c>
       <c r="E48" s="2">
-        <v>44478</v>
+        <v>44472</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48">
-        <v>2102716710</v>
-      </c>
-      <c r="H48" s="2">
-        <v>44481</v>
-      </c>
-      <c r="I48" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="J48" s="2">
-        <v>44480</v>
+        <v>44477</v>
       </c>
       <c r="L48" t="s">
         <v>4</v>
@@ -3998,16 +3992,13 @@
         <v>5</v>
       </c>
       <c r="AN48" s="2">
-        <v>44480</v>
+        <v>44477</v>
       </c>
       <c r="AO48" s="4"/>
       <c r="AS48" s="5"/>
       <c r="AY48" s="5"/>
-      <c r="BG48" t="s">
-        <v>111</v>
-      </c>
       <c r="BH48" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI48" t="s">
         <v>2</v>
@@ -4015,25 +4006,25 @@
     </row>
     <row r="49" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>3521104073963</v>
+        <v>3521103187102</v>
       </c>
       <c r="B49" s="2">
-        <v>44496</v>
+        <v>44486</v>
       </c>
       <c r="C49" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D49" s="2">
-        <v>30972</v>
+        <v>26616</v>
       </c>
       <c r="E49" s="2">
-        <v>44492</v>
+        <v>44483</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J49" s="2">
-        <v>44495</v>
+        <v>44486</v>
       </c>
       <c r="K49" t="s">
         <v>12</v>
@@ -4058,13 +4049,16 @@
         <v>5</v>
       </c>
       <c r="AN49" s="2">
-        <v>44495</v>
+        <v>44486</v>
       </c>
       <c r="AO49" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AS49" s="5"/>
       <c r="AY49" s="5"/>
+      <c r="BE49" t="s">
+        <v>14</v>
+      </c>
       <c r="BH49" t="s">
         <v>1</v>
       </c>
@@ -4074,31 +4068,31 @@
     </row>
     <row r="50" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>3521103887516</v>
+        <v>3521103944112</v>
       </c>
       <c r="B50" s="2">
         <v>44495</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D50" s="2">
-        <v>35468</v>
+        <v>25595</v>
       </c>
       <c r="E50" s="2">
-        <v>44479</v>
+        <v>44488</v>
       </c>
       <c r="F50" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50">
-        <v>2102651566</v>
-      </c>
-      <c r="H50" s="2">
-        <v>44456</v>
-      </c>
-      <c r="I50" t="s">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="J50" s="2">
+        <v>44495</v>
+      </c>
+      <c r="K50" t="s">
+        <v>12</v>
+      </c>
+      <c r="L50" t="s">
+        <v>9</v>
       </c>
       <c r="M50" s="3"/>
       <c r="O50" s="4"/>
@@ -4110,14 +4104,22 @@
       <c r="AB50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AH50" s="5"/>
-      <c r="AL50" s="5"/>
+      <c r="AL50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN50" s="2">
+        <v>44495</v>
+      </c>
+      <c r="AO50" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AS50" s="5"/>
       <c r="AY50" s="5"/>
-      <c r="BG50" t="s">
-        <v>113</v>
-      </c>
       <c r="BH50" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI50" t="s">
         <v>2</v>
@@ -4125,22 +4127,22 @@
     </row>
     <row r="51" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>3521102351767</v>
+        <v>3521102865151</v>
       </c>
       <c r="B51" s="2">
-        <v>44474</v>
+        <v>44482</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D51" s="2">
-        <v>34209</v>
+        <v>27981</v>
       </c>
       <c r="E51" s="2">
-        <v>44471</v>
+        <v>44464</v>
       </c>
       <c r="F51" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="M51" s="3"/>
       <c r="O51" s="4"/>
@@ -4164,7 +4166,7 @@
     </row>
     <row r="52" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>3521104182370</v>
+        <v>3521104144625</v>
       </c>
       <c r="B52" s="2">
         <v>44497</v>
@@ -4173,13 +4175,13 @@
         <v>117</v>
       </c>
       <c r="D52" s="2">
-        <v>38362</v>
+        <v>31152</v>
       </c>
       <c r="E52" s="2">
-        <v>44495</v>
+        <v>44493</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="J52" s="2">
         <v>44497</v>
@@ -4210,7 +4212,7 @@
       <c r="AS52" s="5"/>
       <c r="AY52" s="5"/>
       <c r="BH52" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="BI52" t="s">
         <v>2</v>
@@ -4218,37 +4220,31 @@
     </row>
     <row r="53" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>3521102535120</v>
+        <v>3521102985461</v>
       </c>
       <c r="B53" s="2">
-        <v>44476</v>
+        <v>44483</v>
       </c>
       <c r="C53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D53" s="2">
-        <v>31672</v>
+        <v>33025</v>
       </c>
       <c r="E53" s="2">
-        <v>44473</v>
+        <v>44477</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53">
-        <v>2102715623</v>
-      </c>
-      <c r="H53" s="2">
-        <v>44477</v>
-      </c>
-      <c r="I53" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="J53" s="2">
-        <v>44476</v>
+        <v>44483</v>
+      </c>
+      <c r="K53" t="s">
+        <v>12</v>
       </c>
       <c r="L53" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M53" s="3"/>
       <c r="O53" s="4"/>
@@ -4261,22 +4257,30 @@
       <c r="AE53" s="5"/>
       <c r="AH53" s="5"/>
       <c r="AL53" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AM53" t="s">
         <v>5</v>
       </c>
       <c r="AN53" s="2">
-        <v>44476</v>
-      </c>
-      <c r="AO53" s="4"/>
+        <v>44483</v>
+      </c>
+      <c r="AO53" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AS53" s="5"/>
       <c r="AY53" s="5"/>
-      <c r="BG53" t="s">
-        <v>118</v>
+      <c r="BD53" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF53" s="2">
+        <v>44518</v>
       </c>
       <c r="BH53" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI53" t="s">
         <v>2</v>
@@ -4284,22 +4288,28 @@
     </row>
     <row r="54" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>3521102061246</v>
+        <v>3521103751695</v>
       </c>
       <c r="B54" s="2">
-        <v>44470</v>
+        <v>44492</v>
       </c>
       <c r="C54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D54" s="2">
-        <v>37268</v>
+        <v>32347</v>
       </c>
       <c r="E54" s="2">
-        <v>44464</v>
+        <v>44492</v>
       </c>
       <c r="F54" t="s">
-        <v>114</v>
+        <v>121</v>
+      </c>
+      <c r="J54" s="2">
+        <v>44492</v>
+      </c>
+      <c r="L54" t="s">
+        <v>4</v>
       </c>
       <c r="M54" s="3"/>
       <c r="O54" s="4"/>
@@ -4311,11 +4321,20 @@
       <c r="AB54" s="5"/>
       <c r="AE54" s="5"/>
       <c r="AH54" s="5"/>
-      <c r="AL54" s="5"/>
+      <c r="AL54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN54" s="2">
+        <v>44492</v>
+      </c>
+      <c r="AO54" s="4"/>
       <c r="AS54" s="5"/>
       <c r="AY54" s="5"/>
       <c r="BH54" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="BI54" t="s">
         <v>2</v>
@@ -4323,25 +4342,25 @@
     </row>
     <row r="55" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>3521103233656</v>
+        <v>3521103820146</v>
       </c>
       <c r="B55" s="2">
-        <v>44487</v>
+        <v>44494</v>
       </c>
       <c r="C55" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D55" s="2">
-        <v>36720</v>
+        <v>30753</v>
       </c>
       <c r="E55" s="2">
-        <v>44478</v>
+        <v>44489</v>
       </c>
       <c r="F55" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="J55" s="2">
-        <v>44484</v>
+        <v>44491</v>
       </c>
       <c r="L55" t="s">
         <v>4</v>
@@ -4363,7 +4382,7 @@
         <v>5</v>
       </c>
       <c r="AN55" s="2">
-        <v>44484</v>
+        <v>44491</v>
       </c>
       <c r="AO55" s="4"/>
       <c r="AS55" s="5"/>
@@ -4377,28 +4396,31 @@
     </row>
     <row r="56" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>3521102575496</v>
+        <v>3521103899689</v>
       </c>
       <c r="B56" s="2">
-        <v>44476</v>
+        <v>44495</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D56" s="2">
-        <v>34310</v>
+        <v>32073</v>
       </c>
       <c r="E56" s="2">
-        <v>44473</v>
+        <v>44493</v>
       </c>
       <c r="F56" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="J56" s="2">
-        <v>44476</v>
+        <v>44494</v>
+      </c>
+      <c r="K56" t="s">
+        <v>12</v>
       </c>
       <c r="L56" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M56" s="3"/>
       <c r="O56" s="4"/>
@@ -4411,15 +4433,17 @@
       <c r="AE56" s="5"/>
       <c r="AH56" s="5"/>
       <c r="AL56" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AM56" t="s">
         <v>5</v>
       </c>
       <c r="AN56" s="2">
-        <v>44476</v>
-      </c>
-      <c r="AO56" s="4"/>
+        <v>44494</v>
+      </c>
+      <c r="AO56" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AS56" s="5"/>
       <c r="AY56" s="5"/>
       <c r="BH56" t="s">
@@ -4431,34 +4455,25 @@
     </row>
     <row r="57" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>3521103072508</v>
+        <v>3521102262042</v>
       </c>
       <c r="B57" s="2">
-        <v>44483</v>
+        <v>44474</v>
       </c>
       <c r="C57" t="s">
         <v>124</v>
       </c>
       <c r="D57" s="2">
-        <v>37373</v>
+        <v>24645</v>
       </c>
       <c r="E57" s="2">
-        <v>44480</v>
+        <v>44468</v>
       </c>
       <c r="F57" t="s">
-        <v>125</v>
-      </c>
-      <c r="G57">
-        <v>2102723307</v>
-      </c>
-      <c r="H57" s="2">
-        <v>44484</v>
-      </c>
-      <c r="I57" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="J57" s="2">
-        <v>44483</v>
+        <v>44473</v>
       </c>
       <c r="L57" t="s">
         <v>4</v>
@@ -4480,16 +4495,13 @@
         <v>5</v>
       </c>
       <c r="AN57" s="2">
-        <v>44483</v>
+        <v>44473</v>
       </c>
       <c r="AO57" s="4"/>
       <c r="AS57" s="5"/>
       <c r="AY57" s="5"/>
-      <c r="BG57" t="s">
-        <v>124</v>
-      </c>
       <c r="BH57" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI57" t="s">
         <v>2</v>
@@ -4497,34 +4509,25 @@
     </row>
     <row r="58" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>3521102268131</v>
+        <v>3521102079470</v>
       </c>
       <c r="B58" s="2">
-        <v>44473</v>
+        <v>44471</v>
       </c>
       <c r="C58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D58" s="2">
-        <v>38043</v>
+        <v>44471</v>
       </c>
       <c r="E58" s="2">
-        <v>44473</v>
+        <v>44467</v>
       </c>
       <c r="F58" t="s">
-        <v>127</v>
-      </c>
-      <c r="G58">
-        <v>2102682681</v>
-      </c>
-      <c r="H58" s="2">
-        <v>44473</v>
-      </c>
-      <c r="I58" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J58" s="2">
-        <v>44473</v>
+        <v>44471</v>
       </c>
       <c r="L58" t="s">
         <v>4</v>
@@ -4546,16 +4549,16 @@
         <v>5</v>
       </c>
       <c r="AN58" s="2">
-        <v>44473</v>
+        <v>44471</v>
       </c>
       <c r="AO58" s="4"/>
       <c r="AS58" s="5"/>
       <c r="AY58" s="5"/>
-      <c r="BG58" t="s">
-        <v>126</v>
+      <c r="BE58" t="s">
+        <v>14</v>
       </c>
       <c r="BH58" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI58" t="s">
         <v>2</v>
@@ -4563,31 +4566,22 @@
     </row>
     <row r="59" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>3521102802092</v>
+        <v>3521103740096</v>
       </c>
       <c r="B59" s="2">
-        <v>44481</v>
+        <v>44492</v>
       </c>
       <c r="C59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D59" s="2">
-        <v>36414</v>
+        <v>20418</v>
       </c>
       <c r="E59" s="2">
-        <v>44477</v>
+        <v>44487</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
-      </c>
-      <c r="J59" s="2">
-        <v>44480</v>
-      </c>
-      <c r="K59" t="s">
-        <v>12</v>
-      </c>
-      <c r="L59" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="M59" s="3"/>
       <c r="O59" s="4"/>
@@ -4599,18 +4593,7 @@
       <c r="AB59" s="5"/>
       <c r="AE59" s="5"/>
       <c r="AH59" s="5"/>
-      <c r="AL59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM59" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN59" s="2">
-        <v>44480</v>
-      </c>
-      <c r="AO59" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="AL59" s="5"/>
       <c r="AS59" s="5"/>
       <c r="AY59" s="5"/>
       <c r="BH59" t="s">
@@ -4622,31 +4605,22 @@
     </row>
     <row r="60" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>3521103503418</v>
+        <v>3521102672846</v>
       </c>
       <c r="B60" s="2">
-        <v>44489</v>
+        <v>44478</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D60" s="2">
-        <v>35255</v>
+        <v>44450</v>
       </c>
       <c r="E60" s="2">
-        <v>44486</v>
+        <v>44474</v>
       </c>
       <c r="F60" t="s">
-        <v>102</v>
-      </c>
-      <c r="G60">
-        <v>2102738299</v>
-      </c>
-      <c r="H60" s="2">
-        <v>44490</v>
-      </c>
-      <c r="I60" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M60" s="3"/>
       <c r="O60" s="4"/>
@@ -4661,11 +4635,8 @@
       <c r="AL60" s="5"/>
       <c r="AS60" s="5"/>
       <c r="AY60" s="5"/>
-      <c r="BG60" t="s">
-        <v>129</v>
-      </c>
       <c r="BH60" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI60" t="s">
         <v>2</v>
@@ -4673,22 +4644,31 @@
     </row>
     <row r="61" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>3521102538910</v>
+        <v>3521104316531</v>
       </c>
       <c r="B61" s="2">
-        <v>44476</v>
+        <v>44500</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D61" s="2">
-        <v>35614</v>
+        <v>18941</v>
       </c>
       <c r="E61" s="2">
-        <v>44462</v>
+        <v>44497</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>129</v>
+      </c>
+      <c r="J61" s="2">
+        <v>44500</v>
+      </c>
+      <c r="K61" t="s">
+        <v>12</v>
+      </c>
+      <c r="L61" t="s">
+        <v>9</v>
       </c>
       <c r="M61" s="3"/>
       <c r="O61" s="4"/>
@@ -4700,7 +4680,18 @@
       <c r="AB61" s="5"/>
       <c r="AE61" s="5"/>
       <c r="AH61" s="5"/>
-      <c r="AL61" s="5"/>
+      <c r="AL61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN61" s="2">
+        <v>44500</v>
+      </c>
+      <c r="AO61" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AS61" s="5"/>
       <c r="AY61" s="5"/>
       <c r="BH61" t="s">
@@ -4712,34 +4703,34 @@
     </row>
     <row r="62" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>3521103354360</v>
+        <v>3521102963681</v>
       </c>
       <c r="B62" s="2">
-        <v>44488</v>
+        <v>44482</v>
       </c>
       <c r="C62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D62" s="2">
-        <v>36298</v>
+        <v>21351</v>
       </c>
       <c r="E62" s="2">
-        <v>44487</v>
+        <v>44478</v>
       </c>
       <c r="F62" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="G62">
-        <v>2102716231</v>
+        <v>2102723271</v>
       </c>
       <c r="H62" s="2">
-        <v>44488</v>
+        <v>44483</v>
       </c>
       <c r="I62" t="s">
         <v>3</v>
       </c>
       <c r="J62" s="2">
-        <v>44488</v>
+        <v>44482</v>
       </c>
       <c r="L62" t="s">
         <v>4</v>
@@ -4753,7 +4744,13 @@
       <c r="Y62" s="3"/>
       <c r="AB62" s="5"/>
       <c r="AE62" s="5"/>
-      <c r="AH62" s="5"/>
+      <c r="AH62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI62" s="2">
+        <v>44482</v>
+      </c>
+      <c r="AJ62" s="4"/>
       <c r="AL62" s="5" t="s">
         <v>4</v>
       </c>
@@ -4761,13 +4758,22 @@
         <v>5</v>
       </c>
       <c r="AN62" s="2">
-        <v>44488</v>
+        <v>44482</v>
       </c>
       <c r="AO62" s="4"/>
-      <c r="AS62" s="5"/>
+      <c r="AR62" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT62" s="2">
+        <v>44482</v>
+      </c>
+      <c r="AU62" s="4"/>
       <c r="AY62" s="5"/>
       <c r="BG62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BH62" t="s">
         <v>7</v>
@@ -4778,34 +4784,25 @@
     </row>
     <row r="63" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>3521102206579</v>
+        <v>3521102810391</v>
       </c>
       <c r="B63" s="2">
-        <v>44473</v>
+        <v>44481</v>
       </c>
       <c r="C63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D63" s="2">
-        <v>43889</v>
+        <v>31953</v>
       </c>
       <c r="E63" s="2">
-        <v>44470</v>
+        <v>44479</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63">
-        <v>2102716688</v>
-      </c>
-      <c r="H63" s="2">
-        <v>44474</v>
-      </c>
-      <c r="I63" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="J63" s="2">
-        <v>44473</v>
+        <v>44481</v>
       </c>
       <c r="L63" t="s">
         <v>4</v>
@@ -4827,25 +4824,13 @@
         <v>5</v>
       </c>
       <c r="AN63" s="2">
-        <v>44473</v>
+        <v>44481</v>
       </c>
       <c r="AO63" s="4"/>
       <c r="AS63" s="5"/>
       <c r="AY63" s="5"/>
-      <c r="BD63" t="s">
-        <v>6</v>
-      </c>
-      <c r="BE63" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF63" s="2">
-        <v>44476</v>
-      </c>
-      <c r="BG63" t="s">
-        <v>133</v>
-      </c>
       <c r="BH63" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI63" t="s">
         <v>2</v>
@@ -4853,31 +4838,22 @@
     </row>
     <row r="64" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>3521103801078</v>
+        <v>3521102682347</v>
       </c>
       <c r="B64" s="2">
-        <v>44494</v>
+        <v>44478</v>
       </c>
       <c r="C64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D64" s="2">
-        <v>42473</v>
+        <v>23741</v>
       </c>
       <c r="E64" s="2">
-        <v>44491</v>
+        <v>44473</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
-      </c>
-      <c r="J64" s="2">
-        <v>44494</v>
-      </c>
-      <c r="K64" t="s">
-        <v>12</v>
-      </c>
-      <c r="L64" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="M64" s="3"/>
       <c r="O64" s="4"/>
@@ -4889,22 +4865,11 @@
       <c r="AB64" s="5"/>
       <c r="AE64" s="5"/>
       <c r="AH64" s="5"/>
-      <c r="AL64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM64" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN64" s="2">
-        <v>44494</v>
-      </c>
-      <c r="AO64" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="AL64" s="5"/>
       <c r="AS64" s="5"/>
       <c r="AY64" s="5"/>
       <c r="BH64" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="BI64" t="s">
         <v>2</v>
@@ -4912,22 +4877,31 @@
     </row>
     <row r="65" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>3521103877812</v>
+        <v>3521103877391</v>
       </c>
       <c r="B65" s="2">
         <v>44494</v>
       </c>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D65" s="2">
-        <v>40506</v>
+        <v>42976</v>
       </c>
       <c r="E65" s="2">
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="J65" s="2">
+        <v>44494</v>
+      </c>
+      <c r="K65" t="s">
+        <v>12</v>
+      </c>
+      <c r="L65" t="s">
+        <v>9</v>
       </c>
       <c r="M65" s="3"/>
       <c r="O65" s="4"/>
@@ -4939,7 +4913,18 @@
       <c r="AB65" s="5"/>
       <c r="AE65" s="5"/>
       <c r="AH65" s="5"/>
-      <c r="AL65" s="5"/>
+      <c r="AL65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN65" s="2">
+        <v>44494</v>
+      </c>
+      <c r="AO65" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AS65" s="5"/>
       <c r="AY65" s="5"/>
       <c r="BH65" t="s">
@@ -4951,25 +4936,25 @@
     </row>
     <row r="66" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>3521103735585</v>
+        <v>3521102912753</v>
       </c>
       <c r="B66" s="2">
-        <v>44492</v>
+        <v>44482</v>
       </c>
       <c r="C66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D66" s="2">
-        <v>34789</v>
+        <v>40874</v>
       </c>
       <c r="E66" s="2">
-        <v>44487</v>
+        <v>44475</v>
       </c>
       <c r="F66" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J66" s="2">
-        <v>44492</v>
+        <v>44480</v>
       </c>
       <c r="L66" t="s">
         <v>4</v>
@@ -4991,7 +4976,7 @@
         <v>5</v>
       </c>
       <c r="AN66" s="2">
-        <v>44492</v>
+        <v>44480</v>
       </c>
       <c r="AO66" s="4"/>
       <c r="AS66" s="5"/>
@@ -5005,28 +4990,22 @@
     </row>
     <row r="67" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>3521103518025</v>
+        <v>3521103804445</v>
       </c>
       <c r="B67" s="2">
+        <v>44493</v>
+      </c>
+      <c r="C67" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="2">
+        <v>37351</v>
+      </c>
+      <c r="E67" s="2">
         <v>44489</v>
       </c>
-      <c r="C67" t="s">
-        <v>138</v>
-      </c>
-      <c r="D67" s="2">
-        <v>33322</v>
-      </c>
-      <c r="E67" s="2">
-        <v>44488</v>
-      </c>
       <c r="F67" t="s">
-        <v>139</v>
-      </c>
-      <c r="J67" s="2">
-        <v>44489</v>
-      </c>
-      <c r="L67" t="s">
-        <v>4</v>
+        <v>137</v>
       </c>
       <c r="M67" s="3"/>
       <c r="O67" s="4"/>
@@ -5038,16 +5017,7 @@
       <c r="AB67" s="5"/>
       <c r="AE67" s="5"/>
       <c r="AH67" s="5"/>
-      <c r="AL67" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM67" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN67" s="2">
-        <v>44489</v>
-      </c>
-      <c r="AO67" s="4"/>
+      <c r="AL67" s="5"/>
       <c r="AS67" s="5"/>
       <c r="AY67" s="5"/>
       <c r="BH67" t="s">
@@ -5059,25 +5029,25 @@
     </row>
     <row r="68" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>3521104281990</v>
+        <v>3521103522381</v>
       </c>
       <c r="B68" s="2">
-        <v>44498</v>
+        <v>44490</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D68" s="2">
-        <v>16346</v>
+        <v>31266</v>
       </c>
       <c r="E68" s="2">
-        <v>44492</v>
+        <v>44339</v>
       </c>
       <c r="F68" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="J68" s="2">
-        <v>44498</v>
+        <v>44343</v>
       </c>
       <c r="L68" t="s">
         <v>4</v>
@@ -5099,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="AN68" s="2">
-        <v>44498</v>
+        <v>44343</v>
       </c>
       <c r="AO68" s="4"/>
       <c r="AS68" s="5"/>
@@ -5113,22 +5083,22 @@
     </row>
     <row r="69" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>3521102796411</v>
+        <v>3521102923925</v>
       </c>
       <c r="B69" s="2">
-        <v>44480</v>
+        <v>44482</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D69" s="2">
-        <v>31527</v>
+        <v>23728</v>
       </c>
       <c r="E69" s="2">
         <v>44478</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M69" s="3"/>
       <c r="O69" s="4"/>
@@ -5152,37 +5122,22 @@
     </row>
     <row r="70" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>3521102649086</v>
+        <v>3521103837520</v>
       </c>
       <c r="B70" s="2">
-        <v>44477</v>
+        <v>44494</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D70" s="2">
-        <v>26076</v>
+        <v>23202</v>
       </c>
       <c r="E70" s="2">
         <v>44470</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70">
-        <v>2102715471</v>
-      </c>
-      <c r="H70" s="2">
-        <v>44478</v>
-      </c>
-      <c r="I70" t="s">
-        <v>3</v>
-      </c>
-      <c r="J70" s="2">
-        <v>44477</v>
-      </c>
-      <c r="L70" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M70" s="3"/>
       <c r="O70" s="4"/>
@@ -5194,23 +5149,11 @@
       <c r="AB70" s="5"/>
       <c r="AE70" s="5"/>
       <c r="AH70" s="5"/>
-      <c r="AL70" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM70" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN70" s="2">
-        <v>44477</v>
-      </c>
-      <c r="AO70" s="4"/>
+      <c r="AL70" s="5"/>
       <c r="AS70" s="5"/>
       <c r="AY70" s="5"/>
-      <c r="BG70" t="s">
-        <v>142</v>
-      </c>
       <c r="BH70" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI70" t="s">
         <v>2</v>
@@ -5218,25 +5161,25 @@
     </row>
     <row r="71" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>3521102683860</v>
+        <v>3521103978769</v>
       </c>
       <c r="B71" s="2">
-        <v>44478</v>
+        <v>44495</v>
       </c>
       <c r="C71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D71" s="2">
-        <v>32562</v>
+        <v>19827</v>
       </c>
       <c r="E71" s="2">
-        <v>44476</v>
+        <v>44489</v>
       </c>
       <c r="F71" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="J71" s="2">
-        <v>44478</v>
+        <v>44495</v>
       </c>
       <c r="K71" t="s">
         <v>12</v>
@@ -5261,18 +5204,15 @@
         <v>5</v>
       </c>
       <c r="AN71" s="2">
-        <v>44478</v>
+        <v>44495</v>
       </c>
       <c r="AO71" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AS71" s="5"/>
       <c r="AY71" s="5"/>
-      <c r="BE71" t="s">
-        <v>14</v>
-      </c>
       <c r="BH71" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="BI71" t="s">
         <v>2</v>
@@ -5280,37 +5220,22 @@
     </row>
     <row r="72" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>3521102434902</v>
+        <v>3521102619517</v>
       </c>
       <c r="B72" s="2">
-        <v>44475</v>
+        <v>44476</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D72" s="2">
-        <v>27867</v>
+        <v>43306</v>
       </c>
       <c r="E72" s="2">
-        <v>44472</v>
+        <v>44470</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
-      </c>
-      <c r="G72">
-        <v>2102715699</v>
-      </c>
-      <c r="H72" s="2">
-        <v>44476</v>
-      </c>
-      <c r="I72" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="2">
-        <v>44475</v>
-      </c>
-      <c r="L72" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="M72" s="3"/>
       <c r="O72" s="4"/>
@@ -5322,23 +5247,11 @@
       <c r="AB72" s="5"/>
       <c r="AE72" s="5"/>
       <c r="AH72" s="5"/>
-      <c r="AL72" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM72" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN72" s="2">
-        <v>44475</v>
-      </c>
-      <c r="AO72" s="4"/>
+      <c r="AL72" s="5"/>
       <c r="AS72" s="5"/>
       <c r="AY72" s="5"/>
-      <c r="BG72" t="s">
-        <v>145</v>
-      </c>
       <c r="BH72" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI72" t="s">
         <v>2</v>
@@ -5346,22 +5259,31 @@
     </row>
     <row r="73" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>3521102600418</v>
+        <v>3521102707789</v>
       </c>
       <c r="B73" s="2">
-        <v>44477</v>
+        <v>44479</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D73" s="2">
-        <v>32211</v>
+        <v>41013</v>
       </c>
       <c r="E73" s="2">
-        <v>44475</v>
+        <v>44470</v>
       </c>
       <c r="F73" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="G73">
+        <v>2102738408</v>
+      </c>
+      <c r="H73" s="2">
+        <v>44480</v>
+      </c>
+      <c r="I73" t="s">
+        <v>3</v>
       </c>
       <c r="M73" s="3"/>
       <c r="O73" s="4"/>
@@ -5376,8 +5298,11 @@
       <c r="AL73" s="5"/>
       <c r="AS73" s="5"/>
       <c r="AY73" s="5"/>
+      <c r="BG73" t="s">
+        <v>144</v>
+      </c>
       <c r="BH73" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI73" t="s">
         <v>2</v>
@@ -5385,28 +5310,22 @@
     </row>
     <row r="74" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>3521102676255</v>
+        <v>3521103700829</v>
       </c>
       <c r="B74" s="2">
-        <v>44477</v>
+        <v>44491</v>
       </c>
       <c r="C74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D74" s="2">
-        <v>43344</v>
+        <v>35128</v>
       </c>
       <c r="E74" s="2">
-        <v>44472</v>
+        <v>44487</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
-      </c>
-      <c r="J74" s="2">
-        <v>44477</v>
-      </c>
-      <c r="L74" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="M74" s="3"/>
       <c r="O74" s="4"/>
@@ -5418,16 +5337,7 @@
       <c r="AB74" s="5"/>
       <c r="AE74" s="5"/>
       <c r="AH74" s="5"/>
-      <c r="AL74" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM74" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN74" s="2">
-        <v>44477</v>
-      </c>
-      <c r="AO74" s="4"/>
+      <c r="AL74" s="5"/>
       <c r="AS74" s="5"/>
       <c r="AY74" s="5"/>
       <c r="BH74" t="s">
@@ -5439,31 +5349,31 @@
     </row>
     <row r="75" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>3521103187102</v>
+        <v>3521102809282</v>
       </c>
       <c r="B75" s="2">
-        <v>44486</v>
+        <v>44481</v>
       </c>
       <c r="C75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D75" s="2">
-        <v>26616</v>
+        <v>36914</v>
       </c>
       <c r="E75" s="2">
-        <v>44483</v>
+        <v>44479</v>
       </c>
       <c r="F75" t="s">
-        <v>0</v>
-      </c>
-      <c r="J75" s="2">
-        <v>44486</v>
-      </c>
-      <c r="K75" t="s">
-        <v>12</v>
-      </c>
-      <c r="L75" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="G75">
+        <v>2102738380</v>
+      </c>
+      <c r="H75" s="2">
+        <v>44482</v>
+      </c>
+      <c r="I75" t="s">
+        <v>3</v>
       </c>
       <c r="M75" s="3"/>
       <c r="O75" s="4"/>
@@ -5475,25 +5385,14 @@
       <c r="AB75" s="5"/>
       <c r="AE75" s="5"/>
       <c r="AH75" s="5"/>
-      <c r="AL75" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM75" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN75" s="2">
-        <v>44486</v>
-      </c>
-      <c r="AO75" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="AL75" s="5"/>
       <c r="AS75" s="5"/>
       <c r="AY75" s="5"/>
-      <c r="BE75" t="s">
-        <v>14</v>
+      <c r="BG75" t="s">
+        <v>147</v>
       </c>
       <c r="BH75" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI75" t="s">
         <v>2</v>
@@ -5501,31 +5400,28 @@
     </row>
     <row r="76" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>3521103944112</v>
+        <v>3521102406342</v>
       </c>
       <c r="B76" s="2">
-        <v>44495</v>
+        <v>44474</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D76" s="2">
-        <v>25595</v>
+        <v>44067</v>
       </c>
       <c r="E76" s="2">
-        <v>44488</v>
+        <v>44459</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J76" s="2">
-        <v>44495</v>
-      </c>
-      <c r="K76" t="s">
-        <v>12</v>
+        <v>44474</v>
       </c>
       <c r="L76" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M76" s="3"/>
       <c r="O76" s="4"/>
@@ -5538,17 +5434,15 @@
       <c r="AE76" s="5"/>
       <c r="AH76" s="5"/>
       <c r="AL76" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AM76" t="s">
         <v>5</v>
       </c>
       <c r="AN76" s="2">
-        <v>44495</v>
-      </c>
-      <c r="AO76" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>44474</v>
+      </c>
+      <c r="AO76" s="4"/>
       <c r="AS76" s="5"/>
       <c r="AY76" s="5"/>
       <c r="BH76" t="s">
@@ -5560,22 +5454,37 @@
     </row>
     <row r="77" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>3521102865151</v>
+        <v>3521103447899</v>
       </c>
       <c r="B77" s="2">
-        <v>44482</v>
+        <v>44489</v>
       </c>
       <c r="C77" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77" s="2">
+        <v>35606</v>
+      </c>
+      <c r="E77" s="2">
+        <v>44459</v>
+      </c>
+      <c r="F77" t="s">
         <v>150</v>
       </c>
-      <c r="D77" s="2">
-        <v>27981</v>
-      </c>
-      <c r="E77" s="2">
-        <v>44464</v>
-      </c>
-      <c r="F77" t="s">
-        <v>137</v>
+      <c r="G77">
+        <v>2102716198</v>
+      </c>
+      <c r="H77" s="2">
+        <v>44489</v>
+      </c>
+      <c r="I77" t="s">
+        <v>3</v>
+      </c>
+      <c r="J77" s="2">
+        <v>44489</v>
+      </c>
+      <c r="L77" t="s">
+        <v>4</v>
       </c>
       <c r="M77" s="3"/>
       <c r="O77" s="4"/>
@@ -5587,11 +5496,23 @@
       <c r="AB77" s="5"/>
       <c r="AE77" s="5"/>
       <c r="AH77" s="5"/>
-      <c r="AL77" s="5"/>
+      <c r="AL77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN77" s="2">
+        <v>44489</v>
+      </c>
+      <c r="AO77" s="4"/>
       <c r="AS77" s="5"/>
       <c r="AY77" s="5"/>
+      <c r="BG77" t="s">
+        <v>149</v>
+      </c>
       <c r="BH77" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI77" t="s">
         <v>2</v>
@@ -5599,25 +5520,25 @@
     </row>
     <row r="78" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>3521104144625</v>
+        <v>3521102160313</v>
       </c>
       <c r="B78" s="2">
-        <v>44497</v>
+        <v>44473</v>
       </c>
       <c r="C78" t="s">
         <v>151</v>
       </c>
       <c r="D78" s="2">
-        <v>31152</v>
+        <v>36895</v>
       </c>
       <c r="E78" s="2">
-        <v>44493</v>
+        <v>44470</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="J78" s="2">
-        <v>44497</v>
+        <v>44473</v>
       </c>
       <c r="L78" t="s">
         <v>4</v>
@@ -5639,13 +5560,13 @@
         <v>5</v>
       </c>
       <c r="AN78" s="2">
-        <v>44497</v>
+        <v>44473</v>
       </c>
       <c r="AO78" s="4"/>
       <c r="AS78" s="5"/>
       <c r="AY78" s="5"/>
       <c r="BH78" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="BI78" t="s">
         <v>2</v>
@@ -5653,31 +5574,22 @@
     </row>
     <row r="79" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>3521102985461</v>
+        <v>3521104208409</v>
       </c>
       <c r="B79" s="2">
-        <v>44483</v>
+        <v>44498</v>
       </c>
       <c r="C79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D79" s="2">
-        <v>33025</v>
+        <v>37178</v>
       </c>
       <c r="E79" s="2">
-        <v>44477</v>
+        <v>44494</v>
       </c>
       <c r="F79" t="s">
-        <v>102</v>
-      </c>
-      <c r="J79" s="2">
-        <v>44483</v>
-      </c>
-      <c r="K79" t="s">
-        <v>12</v>
-      </c>
-      <c r="L79" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M79" s="3"/>
       <c r="O79" s="4"/>
@@ -5689,29 +5601,9 @@
       <c r="AB79" s="5"/>
       <c r="AE79" s="5"/>
       <c r="AH79" s="5"/>
-      <c r="AL79" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM79" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN79" s="2">
-        <v>44483</v>
-      </c>
-      <c r="AO79" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="AL79" s="5"/>
       <c r="AS79" s="5"/>
       <c r="AY79" s="5"/>
-      <c r="BD79" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE79" t="s">
-        <v>26</v>
-      </c>
-      <c r="BF79" s="2">
-        <v>44518</v>
-      </c>
       <c r="BH79" t="s">
         <v>1</v>
       </c>
@@ -5721,25 +5613,25 @@
     </row>
     <row r="80" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>3521103751695</v>
+        <v>3521103703745</v>
       </c>
       <c r="B80" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="C80" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" s="2">
+        <v>36777</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44486</v>
+      </c>
+      <c r="F80" t="s">
         <v>154</v>
       </c>
-      <c r="D80" s="2">
-        <v>32347</v>
-      </c>
-      <c r="E80" s="2">
-        <v>44492</v>
-      </c>
-      <c r="F80" t="s">
-        <v>155</v>
-      </c>
       <c r="J80" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="L80" t="s">
         <v>4</v>
@@ -5761,7 +5653,7 @@
         <v>5</v>
       </c>
       <c r="AN80" s="2">
-        <v>44492</v>
+        <v>44491</v>
       </c>
       <c r="AO80" s="4"/>
       <c r="AS80" s="5"/>
@@ -5775,25 +5667,34 @@
     </row>
     <row r="81" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>3521103820146</v>
+        <v>3521102470682</v>
       </c>
       <c r="B81" s="2">
-        <v>44494</v>
+        <v>44476</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D81" s="2">
-        <v>30753</v>
+        <v>38696</v>
       </c>
       <c r="E81" s="2">
-        <v>44489</v>
+        <v>44471</v>
       </c>
       <c r="F81" t="s">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="G81">
+        <v>2102715657</v>
+      </c>
+      <c r="H81" s="2">
+        <v>44476</v>
+      </c>
+      <c r="I81" t="s">
+        <v>3</v>
       </c>
       <c r="J81" s="2">
-        <v>44491</v>
+        <v>44476</v>
       </c>
       <c r="L81" t="s">
         <v>4</v>
@@ -5815,13 +5716,16 @@
         <v>5</v>
       </c>
       <c r="AN81" s="2">
-        <v>44491</v>
+        <v>44476</v>
       </c>
       <c r="AO81" s="4"/>
       <c r="AS81" s="5"/>
       <c r="AY81" s="5"/>
+      <c r="BG81" t="s">
+        <v>155</v>
+      </c>
       <c r="BH81" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI81" t="s">
         <v>2</v>
@@ -5829,31 +5733,22 @@
     </row>
     <row r="82" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>3521103899689</v>
+        <v>3521103410678</v>
       </c>
       <c r="B82" s="2">
-        <v>44495</v>
+        <v>44488</v>
       </c>
       <c r="C82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D82" s="2">
-        <v>32073</v>
+        <v>36521</v>
       </c>
       <c r="E82" s="2">
-        <v>44493</v>
+        <v>44484</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
-      </c>
-      <c r="J82" s="2">
-        <v>44494</v>
-      </c>
-      <c r="K82" t="s">
-        <v>12</v>
-      </c>
-      <c r="L82" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="M82" s="3"/>
       <c r="O82" s="4"/>
@@ -5865,18 +5760,7 @@
       <c r="AB82" s="5"/>
       <c r="AE82" s="5"/>
       <c r="AH82" s="5"/>
-      <c r="AL82" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM82" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN82" s="2">
-        <v>44494</v>
-      </c>
-      <c r="AO82" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="AL82" s="5"/>
       <c r="AS82" s="5"/>
       <c r="AY82" s="5"/>
       <c r="BH82" t="s">
@@ -5888,28 +5772,31 @@
     </row>
     <row r="83" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>3521102262042</v>
+        <v>3521104002283</v>
       </c>
       <c r="B83" s="2">
-        <v>44474</v>
+        <v>44496</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D83" s="2">
-        <v>24645</v>
+        <v>37058</v>
       </c>
       <c r="E83" s="2">
-        <v>44468</v>
+        <v>44492</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J83" s="2">
-        <v>44473</v>
+        <v>44495</v>
+      </c>
+      <c r="K83" t="s">
+        <v>12</v>
       </c>
       <c r="L83" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M83" s="3"/>
       <c r="O83" s="4"/>
@@ -5922,15 +5809,17 @@
       <c r="AE83" s="5"/>
       <c r="AH83" s="5"/>
       <c r="AL83" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AM83" t="s">
         <v>5</v>
       </c>
       <c r="AN83" s="2">
-        <v>44473</v>
-      </c>
-      <c r="AO83" s="4"/>
+        <v>44495</v>
+      </c>
+      <c r="AO83" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AS83" s="5"/>
       <c r="AY83" s="5"/>
       <c r="BH83" t="s">
@@ -5942,28 +5831,31 @@
     </row>
     <row r="84" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>3521102079470</v>
+        <v>3521103489031</v>
       </c>
       <c r="B84" s="2">
-        <v>44471</v>
+        <v>44489</v>
       </c>
       <c r="C84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D84" s="2">
-        <v>44471</v>
+        <v>36821</v>
       </c>
       <c r="E84" s="2">
-        <v>44467</v>
+        <v>44487</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
-      </c>
-      <c r="J84" s="2">
-        <v>44471</v>
-      </c>
-      <c r="L84" t="s">
-        <v>4</v>
+        <v>41</v>
+      </c>
+      <c r="G84">
+        <v>2102716028</v>
+      </c>
+      <c r="H84" s="2">
+        <v>44490</v>
+      </c>
+      <c r="I84" t="s">
+        <v>3</v>
       </c>
       <c r="M84" s="3"/>
       <c r="O84" s="4"/>
@@ -5975,23 +5867,14 @@
       <c r="AB84" s="5"/>
       <c r="AE84" s="5"/>
       <c r="AH84" s="5"/>
-      <c r="AL84" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM84" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN84" s="2">
-        <v>44471</v>
-      </c>
-      <c r="AO84" s="4"/>
+      <c r="AL84" s="5"/>
       <c r="AS84" s="5"/>
       <c r="AY84" s="5"/>
-      <c r="BE84" t="s">
-        <v>14</v>
+      <c r="BG84" t="s">
+        <v>158</v>
       </c>
       <c r="BH84" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI84" t="s">
         <v>2</v>
@@ -5999,22 +5882,28 @@
     </row>
     <row r="85" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>3521103740096</v>
+        <v>3521103012006</v>
       </c>
       <c r="B85" s="2">
-        <v>44492</v>
+        <v>44483</v>
       </c>
       <c r="C85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D85" s="2">
-        <v>20418</v>
+        <v>36776</v>
       </c>
       <c r="E85" s="2">
-        <v>44487</v>
+        <v>44481</v>
       </c>
       <c r="F85" t="s">
-        <v>116</v>
+        <v>8</v>
+      </c>
+      <c r="J85" s="2">
+        <v>44483</v>
+      </c>
+      <c r="L85" t="s">
+        <v>4</v>
       </c>
       <c r="M85" s="3"/>
       <c r="O85" s="4"/>
@@ -6026,7 +5915,16 @@
       <c r="AB85" s="5"/>
       <c r="AE85" s="5"/>
       <c r="AH85" s="5"/>
-      <c r="AL85" s="5"/>
+      <c r="AL85" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN85" s="2">
+        <v>44483</v>
+      </c>
+      <c r="AO85" s="4"/>
       <c r="AS85" s="5"/>
       <c r="AY85" s="5"/>
       <c r="BH85" t="s">
@@ -6038,22 +5936,31 @@
     </row>
     <row r="86" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>3521102672846</v>
+        <v>3521103411978</v>
       </c>
       <c r="B86" s="2">
-        <v>44478</v>
+        <v>44488</v>
       </c>
       <c r="C86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D86" s="2">
-        <v>44450</v>
+        <v>31370</v>
       </c>
       <c r="E86" s="2">
-        <v>44474</v>
+        <v>44484</v>
       </c>
       <c r="F86" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="G86">
+        <v>2102715674</v>
+      </c>
+      <c r="H86" s="2">
+        <v>44489</v>
+      </c>
+      <c r="I86" t="s">
+        <v>3</v>
       </c>
       <c r="M86" s="3"/>
       <c r="O86" s="4"/>
@@ -6068,8 +5975,11 @@
       <c r="AL86" s="5"/>
       <c r="AS86" s="5"/>
       <c r="AY86" s="5"/>
+      <c r="BG86" t="s">
+        <v>160</v>
+      </c>
       <c r="BH86" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI86" t="s">
         <v>2</v>
@@ -6077,31 +5987,37 @@
     </row>
     <row r="87" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>3521104316531</v>
+        <v>3521102312047</v>
       </c>
       <c r="B87" s="2">
-        <v>44500</v>
+        <v>44474</v>
       </c>
       <c r="C87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D87" s="2">
-        <v>18941</v>
+        <v>23927</v>
       </c>
       <c r="E87" s="2">
-        <v>44497</v>
+        <v>44471</v>
       </c>
       <c r="F87" t="s">
-        <v>163</v>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>2102716065</v>
+      </c>
+      <c r="H87" s="2">
+        <v>44475</v>
+      </c>
+      <c r="I87" t="s">
+        <v>3</v>
       </c>
       <c r="J87" s="2">
-        <v>44500</v>
-      </c>
-      <c r="K87" t="s">
-        <v>12</v>
+        <v>44474</v>
       </c>
       <c r="L87" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M87" s="3"/>
       <c r="O87" s="4"/>
@@ -6114,21 +6030,22 @@
       <c r="AE87" s="5"/>
       <c r="AH87" s="5"/>
       <c r="AL87" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AM87" t="s">
         <v>5</v>
       </c>
       <c r="AN87" s="2">
-        <v>44500</v>
-      </c>
-      <c r="AO87" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>44474</v>
+      </c>
+      <c r="AO87" s="4"/>
       <c r="AS87" s="5"/>
       <c r="AY87" s="5"/>
+      <c r="BG87" t="s">
+        <v>161</v>
+      </c>
       <c r="BH87" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI87" t="s">
         <v>2</v>
@@ -6136,37 +6053,22 @@
     </row>
     <row r="88" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>3521102963681</v>
+        <v>3521103407607</v>
       </c>
       <c r="B88" s="2">
-        <v>44482</v>
+        <v>44488</v>
       </c>
       <c r="C88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D88" s="2">
-        <v>21351</v>
+        <v>27608</v>
       </c>
       <c r="E88" s="2">
-        <v>44478</v>
+        <v>44474</v>
       </c>
       <c r="F88" t="s">
-        <v>155</v>
-      </c>
-      <c r="G88">
-        <v>2102723271</v>
-      </c>
-      <c r="H88" s="2">
-        <v>44483</v>
-      </c>
-      <c r="I88" t="s">
-        <v>3</v>
-      </c>
-      <c r="J88" s="2">
-        <v>44482</v>
-      </c>
-      <c r="L88" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="M88" s="3"/>
       <c r="O88" s="4"/>
@@ -6177,39 +6079,12 @@
       <c r="Y88" s="3"/>
       <c r="AB88" s="5"/>
       <c r="AE88" s="5"/>
-      <c r="AH88" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI88" s="2">
-        <v>44482</v>
-      </c>
-      <c r="AJ88" s="4"/>
-      <c r="AL88" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM88" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN88" s="2">
-        <v>44482</v>
-      </c>
-      <c r="AO88" s="4"/>
-      <c r="AR88" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS88" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT88" s="2">
-        <v>44482</v>
-      </c>
-      <c r="AU88" s="4"/>
+      <c r="AH88" s="5"/>
+      <c r="AL88" s="5"/>
+      <c r="AS88" s="5"/>
       <c r="AY88" s="5"/>
-      <c r="BG88" t="s">
-        <v>164</v>
-      </c>
       <c r="BH88" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI88" t="s">
         <v>2</v>
@@ -6217,25 +6092,25 @@
     </row>
     <row r="89" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>3521102810391</v>
+        <v>3521103963458</v>
       </c>
       <c r="B89" s="2">
-        <v>44481</v>
+        <v>44495</v>
       </c>
       <c r="C89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D89" s="2">
-        <v>31953</v>
+        <v>22781</v>
       </c>
       <c r="E89" s="2">
-        <v>44479</v>
+        <v>44490</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J89" s="2">
-        <v>44481</v>
+        <v>44495</v>
       </c>
       <c r="L89" t="s">
         <v>4</v>
@@ -6249,18 +6124,33 @@
       <c r="Y89" s="3"/>
       <c r="AB89" s="5"/>
       <c r="AE89" s="5"/>
-      <c r="AH89" s="5"/>
+      <c r="AH89" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI89" s="2">
+        <v>44495</v>
+      </c>
+      <c r="AJ89" s="4"/>
       <c r="AL89" s="5" t="s">
         <v>4</v>
       </c>
       <c r="AM89" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN89" s="2">
+        <v>44495</v>
+      </c>
+      <c r="AO89" s="4"/>
+      <c r="AR89" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS89" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="AN89" s="2">
-        <v>44481</v>
-      </c>
-      <c r="AO89" s="4"/>
-      <c r="AS89" s="5"/>
+      <c r="AT89" s="2">
+        <v>44495</v>
+      </c>
+      <c r="AU89" s="4"/>
       <c r="AY89" s="5"/>
       <c r="BH89" t="s">
         <v>1</v>
@@ -6271,22 +6161,28 @@
     </row>
     <row r="90" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>3521102682347</v>
+        <v>3521102442832</v>
       </c>
       <c r="B90" s="2">
-        <v>44478</v>
+        <v>44475</v>
       </c>
       <c r="C90" t="s">
+        <v>165</v>
+      </c>
+      <c r="D90" s="2">
+        <v>33507</v>
+      </c>
+      <c r="E90" s="2">
+        <v>44459</v>
+      </c>
+      <c r="F90" t="s">
         <v>166</v>
       </c>
-      <c r="D90" s="2">
-        <v>23741</v>
-      </c>
-      <c r="E90" s="2">
-        <v>44473</v>
-      </c>
-      <c r="F90" t="s">
-        <v>94</v>
+      <c r="J90" s="2">
+        <v>44462</v>
+      </c>
+      <c r="L90" t="s">
+        <v>4</v>
       </c>
       <c r="M90" s="3"/>
       <c r="O90" s="4"/>
@@ -6298,7 +6194,16 @@
       <c r="AB90" s="5"/>
       <c r="AE90" s="5"/>
       <c r="AH90" s="5"/>
-      <c r="AL90" s="5"/>
+      <c r="AL90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN90" s="2">
+        <v>44462</v>
+      </c>
+      <c r="AO90" s="4"/>
       <c r="AS90" s="5"/>
       <c r="AY90" s="5"/>
       <c r="BH90" t="s">
@@ -6310,25 +6215,25 @@
     </row>
     <row r="91" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>3521103877391</v>
+        <v>3521104143679</v>
       </c>
       <c r="B91" s="2">
-        <v>44494</v>
+        <v>44489</v>
       </c>
       <c r="C91" t="s">
         <v>167</v>
       </c>
       <c r="D91" s="2">
-        <v>42976</v>
+        <v>25870</v>
       </c>
       <c r="E91" s="2">
-        <v>44492</v>
+        <v>44483</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="J91" s="2">
-        <v>44494</v>
+        <v>44489</v>
       </c>
       <c r="K91" t="s">
         <v>12</v>
@@ -6353,13 +6258,22 @@
         <v>5</v>
       </c>
       <c r="AN91" s="2">
-        <v>44494</v>
+        <v>44489</v>
       </c>
       <c r="AO91" s="4" t="s">
         <v>12</v>
       </c>
       <c r="AS91" s="5"/>
       <c r="AY91" s="5"/>
+      <c r="BD91" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE91" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF91" s="2">
+        <v>44497</v>
+      </c>
       <c r="BH91" t="s">
         <v>1</v>
       </c>
@@ -6369,51 +6283,77 @@
     </row>
     <row r="92" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>3521102912753</v>
+        <v>3521102382381</v>
       </c>
       <c r="B92" s="2">
-        <v>44482</v>
+        <v>44475</v>
       </c>
       <c r="C92" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D92" s="2">
-        <v>40874</v>
+        <v>33220</v>
       </c>
       <c r="E92" s="2">
-        <v>44475</v>
+        <v>44467</v>
       </c>
       <c r="F92" t="s">
-        <v>169</v>
-      </c>
-      <c r="J92" s="2">
-        <v>44480</v>
-      </c>
-      <c r="L92" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="M92" s="3"/>
       <c r="O92" s="4"/>
       <c r="P92" s="5"/>
       <c r="R92" s="4"/>
-      <c r="S92" s="5"/>
-      <c r="V92" s="5"/>
+      <c r="S92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T92" s="2">
+        <v>44475</v>
+      </c>
+      <c r="U92" t="s">
+        <v>10</v>
+      </c>
+      <c r="V92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W92" s="2">
+        <v>44475</v>
+      </c>
+      <c r="X92" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="Y92" s="3"/>
       <c r="AB92" s="5"/>
       <c r="AE92" s="5"/>
       <c r="AH92" s="5"/>
       <c r="AL92" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AM92" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="AN92" s="2">
-        <v>44480</v>
-      </c>
-      <c r="AO92" s="4"/>
-      <c r="AS92" s="5"/>
+        <v>44475</v>
+      </c>
+      <c r="AO92" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR92" t="s">
+        <v>9</v>
+      </c>
+      <c r="AS92" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT92" s="2">
+        <v>44475</v>
+      </c>
+      <c r="AU92" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="AY92" s="5"/>
+      <c r="BE92" t="s">
+        <v>14</v>
+      </c>
       <c r="BH92" t="s">
         <v>1</v>
       </c>
@@ -6423,22 +6363,37 @@
     </row>
     <row r="93" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>3521103804445</v>
+        <v>3521103250144</v>
       </c>
       <c r="B93" s="2">
-        <v>44493</v>
+        <v>44487</v>
       </c>
       <c r="C93" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D93" s="2">
-        <v>37351</v>
+        <v>18086</v>
       </c>
       <c r="E93" s="2">
-        <v>44489</v>
+        <v>44482</v>
       </c>
       <c r="F93" t="s">
-        <v>171</v>
+        <v>18</v>
+      </c>
+      <c r="G93">
+        <v>2102590821</v>
+      </c>
+      <c r="H93" s="2">
+        <v>44488</v>
+      </c>
+      <c r="I93" t="s">
+        <v>3</v>
+      </c>
+      <c r="J93" s="2">
+        <v>44487</v>
+      </c>
+      <c r="L93" t="s">
+        <v>4</v>
       </c>
       <c r="M93" s="3"/>
       <c r="O93" s="4"/>
@@ -6450,11 +6405,26 @@
       <c r="AB93" s="5"/>
       <c r="AE93" s="5"/>
       <c r="AH93" s="5"/>
-      <c r="AL93" s="5"/>
+      <c r="AL93" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM93" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN93" s="2">
+        <v>44487</v>
+      </c>
+      <c r="AO93" s="4"/>
       <c r="AS93" s="5"/>
       <c r="AY93" s="5"/>
+      <c r="BE93" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG93" t="s">
+        <v>171</v>
+      </c>
       <c r="BH93" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI93" t="s">
         <v>2</v>
@@ -6462,25 +6432,25 @@
     </row>
     <row r="94" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>3521103522381</v>
+        <v>3521102385488</v>
       </c>
       <c r="B94" s="2">
-        <v>44490</v>
+        <v>44474</v>
       </c>
       <c r="C94" t="s">
         <v>172</v>
       </c>
       <c r="D94" s="2">
-        <v>31266</v>
+        <v>31608</v>
       </c>
       <c r="E94" s="2">
-        <v>44339</v>
+        <v>44472</v>
       </c>
       <c r="F94" t="s">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="J94" s="2">
-        <v>44343</v>
+        <v>44474</v>
       </c>
       <c r="L94" t="s">
         <v>4</v>
@@ -6502,7 +6472,7 @@
         <v>5</v>
       </c>
       <c r="AN94" s="2">
-        <v>44343</v>
+        <v>44474</v>
       </c>
       <c r="AO94" s="4"/>
       <c r="AS94" s="5"/>
@@ -6516,22 +6486,22 @@
     </row>
     <row r="95" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>3521102923925</v>
+        <v>3521102303060</v>
       </c>
       <c r="B95" s="2">
-        <v>44482</v>
+        <v>44474</v>
       </c>
       <c r="C95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D95" s="2">
-        <v>23728</v>
+        <v>33621</v>
       </c>
       <c r="E95" s="2">
-        <v>44478</v>
+        <v>44471</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="M95" s="3"/>
       <c r="O95" s="4"/>
@@ -6555,22 +6525,28 @@
     </row>
     <row r="96" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>3521103837520</v>
+        <v>3521102678257</v>
       </c>
       <c r="B96" s="2">
-        <v>44494</v>
+        <v>44478</v>
       </c>
       <c r="C96" t="s">
+        <v>174</v>
+      </c>
+      <c r="D96" s="2">
+        <v>36062</v>
+      </c>
+      <c r="E96" s="2">
+        <v>44476</v>
+      </c>
+      <c r="F96" t="s">
         <v>175</v>
       </c>
-      <c r="D96" s="2">
-        <v>23202</v>
-      </c>
-      <c r="E96" s="2">
-        <v>44470</v>
-      </c>
-      <c r="F96" t="s">
-        <v>23</v>
+      <c r="J96" s="2">
+        <v>44478</v>
+      </c>
+      <c r="L96" t="s">
+        <v>4</v>
       </c>
       <c r="M96" s="3"/>
       <c r="O96" s="4"/>
@@ -6582,7 +6558,16 @@
       <c r="AB96" s="5"/>
       <c r="AE96" s="5"/>
       <c r="AH96" s="5"/>
-      <c r="AL96" s="5"/>
+      <c r="AL96" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM96" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN96" s="2">
+        <v>44478</v>
+      </c>
+      <c r="AO96" s="4"/>
       <c r="AS96" s="5"/>
       <c r="AY96" s="5"/>
       <c r="BH96" t="s">
@@ -6594,31 +6579,28 @@
     </row>
     <row r="97" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>3521103978769</v>
+        <v>3521102809508</v>
       </c>
       <c r="B97" s="2">
-        <v>44495</v>
+        <v>44481</v>
       </c>
       <c r="C97" t="s">
         <v>176</v>
       </c>
       <c r="D97" s="2">
-        <v>19827</v>
+        <v>33232</v>
       </c>
       <c r="E97" s="2">
-        <v>44489</v>
+        <v>44475</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
+        <v>177</v>
       </c>
       <c r="J97" s="2">
-        <v>44495</v>
-      </c>
-      <c r="K97" t="s">
-        <v>12</v>
+        <v>44481</v>
       </c>
       <c r="L97" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M97" s="3"/>
       <c r="O97" s="4"/>
@@ -6631,21 +6613,19 @@
       <c r="AE97" s="5"/>
       <c r="AH97" s="5"/>
       <c r="AL97" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AM97" t="s">
         <v>5</v>
       </c>
       <c r="AN97" s="2">
-        <v>44495</v>
-      </c>
-      <c r="AO97" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>44481</v>
+      </c>
+      <c r="AO97" s="4"/>
       <c r="AS97" s="5"/>
       <c r="AY97" s="5"/>
       <c r="BH97" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="BI97" t="s">
         <v>2</v>
@@ -6653,22 +6633,28 @@
     </row>
     <row r="98" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>3521102619517</v>
+        <v>3521103146681</v>
       </c>
       <c r="B98" s="2">
-        <v>44476</v>
+        <v>44484</v>
       </c>
       <c r="C98" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D98" s="2">
-        <v>43306</v>
+        <v>30822</v>
       </c>
       <c r="E98" s="2">
-        <v>44470</v>
+        <v>44480</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>121</v>
+      </c>
+      <c r="J98" s="2">
+        <v>44484</v>
+      </c>
+      <c r="L98" t="s">
+        <v>4</v>
       </c>
       <c r="M98" s="3"/>
       <c r="O98" s="4"/>
@@ -6680,7 +6666,16 @@
       <c r="AB98" s="5"/>
       <c r="AE98" s="5"/>
       <c r="AH98" s="5"/>
-      <c r="AL98" s="5"/>
+      <c r="AL98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM98" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN98" s="2">
+        <v>44484</v>
+      </c>
+      <c r="AO98" s="4"/>
       <c r="AS98" s="5"/>
       <c r="AY98" s="5"/>
       <c r="BH98" t="s">
@@ -6692,31 +6687,37 @@
     </row>
     <row r="99" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>3521102707789</v>
+        <v>3521102339622</v>
       </c>
       <c r="B99" s="2">
-        <v>44479</v>
+        <v>44474</v>
       </c>
       <c r="C99" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D99" s="2">
-        <v>41013</v>
+        <v>34995</v>
       </c>
       <c r="E99" s="2">
-        <v>44470</v>
+        <v>44473</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="G99">
-        <v>2102738408</v>
+        <v>2102716225</v>
       </c>
       <c r="H99" s="2">
-        <v>44480</v>
+        <v>44475</v>
       </c>
       <c r="I99" t="s">
         <v>3</v>
+      </c>
+      <c r="J99" s="2">
+        <v>44474</v>
+      </c>
+      <c r="L99" t="s">
+        <v>4</v>
       </c>
       <c r="M99" s="3"/>
       <c r="O99" s="4"/>
@@ -6728,11 +6729,20 @@
       <c r="AB99" s="5"/>
       <c r="AE99" s="5"/>
       <c r="AH99" s="5"/>
-      <c r="AL99" s="5"/>
+      <c r="AL99" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM99" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN99" s="2">
+        <v>44474</v>
+      </c>
+      <c r="AO99" s="4"/>
       <c r="AS99" s="5"/>
       <c r="AY99" s="5"/>
       <c r="BG99" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="BH99" t="s">
         <v>7</v>
@@ -6743,22 +6753,28 @@
     </row>
     <row r="100" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>3521103700829</v>
+        <v>3521104040871</v>
       </c>
       <c r="B100" s="2">
-        <v>44491</v>
+        <v>44496</v>
       </c>
       <c r="C100" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D100" s="2">
-        <v>35128</v>
+        <v>36156</v>
       </c>
       <c r="E100" s="2">
-        <v>44487</v>
+        <v>44492</v>
       </c>
       <c r="F100" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+      <c r="J100" s="2">
+        <v>44496</v>
+      </c>
+      <c r="L100" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3"/>
       <c r="O100" s="4"/>
@@ -6770,7 +6786,16 @@
       <c r="AB100" s="5"/>
       <c r="AE100" s="5"/>
       <c r="AH100" s="5"/>
-      <c r="AL100" s="5"/>
+      <c r="AL100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM100" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN100" s="2">
+        <v>44496</v>
+      </c>
+      <c r="AO100" s="4"/>
       <c r="AS100" s="5"/>
       <c r="AY100" s="5"/>
       <c r="BH100" t="s">
@@ -6782,31 +6807,28 @@
     </row>
     <row r="101" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>3521102809282</v>
+        <v>3521103868101</v>
       </c>
       <c r="B101" s="2">
-        <v>44481</v>
+        <v>44494</v>
       </c>
       <c r="C101" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D101" s="2">
-        <v>36914</v>
+        <v>27419</v>
       </c>
       <c r="E101" s="2">
-        <v>44479</v>
+        <v>44492</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101">
-        <v>2102738380</v>
-      </c>
-      <c r="H101" s="2">
-        <v>44482</v>
-      </c>
-      <c r="I101" t="s">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="J101" s="2">
+        <v>44494</v>
+      </c>
+      <c r="L101" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3"/>
       <c r="O101" s="4"/>
@@ -6818,14 +6840,20 @@
       <c r="AB101" s="5"/>
       <c r="AE101" s="5"/>
       <c r="AH101" s="5"/>
-      <c r="AL101" s="5"/>
+      <c r="AL101" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM101" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN101" s="2">
+        <v>44494</v>
+      </c>
+      <c r="AO101" s="4"/>
       <c r="AS101" s="5"/>
       <c r="AY101" s="5"/>
-      <c r="BG101" t="s">
-        <v>181</v>
-      </c>
       <c r="BH101" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="BI101" t="s">
         <v>2</v>
@@ -6833,25 +6861,25 @@
     </row>
     <row r="102" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>3521102406342</v>
+        <v>3521102055418</v>
       </c>
       <c r="B102" s="2">
-        <v>44474</v>
+        <v>44470</v>
       </c>
       <c r="C102" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D102" s="2">
-        <v>44067</v>
+        <v>36887</v>
       </c>
       <c r="E102" s="2">
-        <v>44459</v>
+        <v>44435</v>
       </c>
       <c r="F102" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="J102" s="2">
-        <v>44474</v>
+        <v>44470</v>
       </c>
       <c r="L102" t="s">
         <v>4</v>
@@ -6873,7 +6901,7 @@
         <v>5</v>
       </c>
       <c r="AN102" s="2">
-        <v>44474</v>
+        <v>44470</v>
       </c>
       <c r="AO102" s="4"/>
       <c r="AS102" s="5"/>
@@ -6887,34 +6915,25 @@
     </row>
     <row r="103" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>3521103447899</v>
+        <v>3521103895582</v>
       </c>
       <c r="B103" s="2">
-        <v>44489</v>
+        <v>44494</v>
       </c>
       <c r="C103" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D103" s="2">
-        <v>35606</v>
+        <v>34125</v>
       </c>
       <c r="E103" s="2">
-        <v>44459</v>
+        <v>44491</v>
       </c>
       <c r="F103" t="s">
-        <v>184</v>
-      </c>
-      <c r="G103">
-        <v>2102716198</v>
-      </c>
-      <c r="H103" s="2">
-        <v>44489</v>
-      </c>
-      <c r="I103" t="s">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="J103" s="2">
-        <v>44489</v>
+        <v>44494</v>
       </c>
       <c r="L103" t="s">
         <v>4</v>
@@ -6936,16 +6955,13 @@
         <v>5</v>
       </c>
       <c r="AN103" s="2">
-        <v>44489</v>
+        <v>44494</v>
       </c>
       <c r="AO103" s="4"/>
       <c r="AS103" s="5"/>
       <c r="AY103" s="5"/>
-      <c r="BG103" t="s">
-        <v>183</v>
-      </c>
       <c r="BH103" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI103" t="s">
         <v>2</v>
@@ -6953,25 +6969,25 @@
     </row>
     <row r="104" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>3521102160313</v>
+        <v>3521102876543</v>
       </c>
       <c r="B104" s="2">
-        <v>44473</v>
+        <v>44482</v>
       </c>
       <c r="C104" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D104" s="2">
-        <v>36895</v>
+        <v>31562</v>
       </c>
       <c r="E104" s="2">
-        <v>44470</v>
+        <v>44479</v>
       </c>
       <c r="F104" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J104" s="2">
-        <v>44473</v>
+        <v>44482</v>
       </c>
       <c r="L104" t="s">
         <v>4</v>
@@ -6993,7 +7009,7 @@
         <v>5</v>
       </c>
       <c r="AN104" s="2">
-        <v>44473</v>
+        <v>44482</v>
       </c>
       <c r="AO104" s="4"/>
       <c r="AS104" s="5"/>
@@ -7007,22 +7023,22 @@
     </row>
     <row r="105" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>3521104208409</v>
+        <v>3521102643586</v>
       </c>
       <c r="B105" s="2">
-        <v>44498</v>
+        <v>44477</v>
       </c>
       <c r="C105" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D105" s="2">
-        <v>37178</v>
+        <v>27967</v>
       </c>
       <c r="E105" s="2">
-        <v>44494</v>
+        <v>44474</v>
       </c>
       <c r="F105" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M105" s="3"/>
       <c r="O105" s="4"/>
@@ -7046,25 +7062,34 @@
     </row>
     <row r="106" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>3521103703745</v>
+        <v>3521102682520</v>
       </c>
       <c r="B106" s="2">
-        <v>44491</v>
+        <v>44478</v>
       </c>
       <c r="C106" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D106" s="2">
-        <v>36777</v>
+        <v>22118</v>
       </c>
       <c r="E106" s="2">
-        <v>44486</v>
+        <v>44475</v>
       </c>
       <c r="F106" t="s">
-        <v>188</v>
+        <v>44</v>
+      </c>
+      <c r="G106">
+        <v>2102716778</v>
+      </c>
+      <c r="H106" s="2">
+        <v>44480</v>
+      </c>
+      <c r="I106" t="s">
+        <v>3</v>
       </c>
       <c r="J106" s="2">
-        <v>44491</v>
+        <v>44478</v>
       </c>
       <c r="L106" t="s">
         <v>4</v>
@@ -7086,13 +7111,16 @@
         <v>5</v>
       </c>
       <c r="AN106" s="2">
-        <v>44491</v>
+        <v>44478</v>
       </c>
       <c r="AO106" s="4"/>
       <c r="AS106" s="5"/>
       <c r="AY106" s="5"/>
+      <c r="BG106" t="s">
+        <v>189</v>
+      </c>
       <c r="BH106" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI106" t="s">
         <v>2</v>
@@ -7100,37 +7128,22 @@
     </row>
     <row r="107" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>3521102470682</v>
+        <v>3521102304819</v>
       </c>
       <c r="B107" s="2">
-        <v>44476</v>
+        <v>44473</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D107" s="2">
-        <v>38696</v>
+        <v>41321</v>
       </c>
       <c r="E107" s="2">
         <v>44471</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
-      </c>
-      <c r="G107">
-        <v>2102715657</v>
-      </c>
-      <c r="H107" s="2">
-        <v>44476</v>
-      </c>
-      <c r="I107" t="s">
-        <v>3</v>
-      </c>
-      <c r="J107" s="2">
-        <v>44476</v>
-      </c>
-      <c r="L107" t="s">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="M107" s="3"/>
       <c r="O107" s="4"/>
@@ -7142,23 +7155,11 @@
       <c r="AB107" s="5"/>
       <c r="AE107" s="5"/>
       <c r="AH107" s="5"/>
-      <c r="AL107" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM107" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN107" s="2">
-        <v>44476</v>
-      </c>
-      <c r="AO107" s="4"/>
+      <c r="AL107" s="5"/>
       <c r="AS107" s="5"/>
       <c r="AY107" s="5"/>
-      <c r="BG107" t="s">
-        <v>189</v>
-      </c>
       <c r="BH107" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI107" t="s">
         <v>2</v>
@@ -7166,22 +7167,37 @@
     </row>
     <row r="108" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>3521103410678</v>
+        <v>3521102845585</v>
       </c>
       <c r="B108" s="2">
-        <v>44488</v>
+        <v>44482</v>
       </c>
       <c r="C108" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D108" s="2">
-        <v>36521</v>
+        <v>35896</v>
       </c>
       <c r="E108" s="2">
-        <v>44484</v>
+        <v>44481</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="G108">
+        <v>2102664742</v>
+      </c>
+      <c r="H108" s="2">
+        <v>44482</v>
+      </c>
+      <c r="I108" t="s">
+        <v>3</v>
+      </c>
+      <c r="J108" s="2">
+        <v>44482</v>
+      </c>
+      <c r="L108" t="s">
+        <v>4</v>
       </c>
       <c r="M108" s="3"/>
       <c r="O108" s="4"/>
@@ -7193,11 +7209,23 @@
       <c r="AB108" s="5"/>
       <c r="AE108" s="5"/>
       <c r="AH108" s="5"/>
-      <c r="AL108" s="5"/>
+      <c r="AL108" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM108" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN108" s="2">
+        <v>44482</v>
+      </c>
+      <c r="AO108" s="4"/>
       <c r="AS108" s="5"/>
       <c r="AY108" s="5"/>
+      <c r="BG108" t="s">
+        <v>192</v>
+      </c>
       <c r="BH108" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI108" t="s">
         <v>2</v>
@@ -7205,31 +7233,37 @@
     </row>
     <row r="109" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>3521104002283</v>
+        <v>3521103289835</v>
       </c>
       <c r="B109" s="2">
-        <v>44496</v>
+        <v>44487</v>
       </c>
       <c r="C109" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D109" s="2">
-        <v>37058</v>
+        <v>41007</v>
       </c>
       <c r="E109" s="2">
-        <v>44492</v>
+        <v>44485</v>
       </c>
       <c r="F109" t="s">
-        <v>17</v>
+        <v>70</v>
+      </c>
+      <c r="G109">
+        <v>2102735385</v>
+      </c>
+      <c r="H109" s="2">
+        <v>44488</v>
+      </c>
+      <c r="I109" t="s">
+        <v>3</v>
       </c>
       <c r="J109" s="2">
-        <v>44495</v>
-      </c>
-      <c r="K109" t="s">
-        <v>12</v>
+        <v>44487</v>
       </c>
       <c r="L109" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M109" s="3"/>
       <c r="O109" s="4"/>
@@ -7242,21 +7276,22 @@
       <c r="AE109" s="5"/>
       <c r="AH109" s="5"/>
       <c r="AL109" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AM109" t="s">
         <v>5</v>
       </c>
       <c r="AN109" s="2">
-        <v>44495</v>
-      </c>
-      <c r="AO109" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>44487</v>
+      </c>
+      <c r="AO109" s="4"/>
       <c r="AS109" s="5"/>
       <c r="AY109" s="5"/>
+      <c r="BG109" t="s">
+        <v>193</v>
+      </c>
       <c r="BH109" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI109" t="s">
         <v>2</v>
@@ -7264,31 +7299,37 @@
     </row>
     <row r="110" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>3521103489031</v>
+        <v>3521103024624</v>
       </c>
       <c r="B110" s="2">
-        <v>44489</v>
+        <v>44483</v>
       </c>
       <c r="C110" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D110" s="2">
-        <v>36821</v>
+        <v>35780</v>
       </c>
       <c r="E110" s="2">
-        <v>44487</v>
+        <v>44481</v>
       </c>
       <c r="F110" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G110">
-        <v>2102716028</v>
+        <v>2102716769</v>
       </c>
       <c r="H110" s="2">
-        <v>44490</v>
+        <v>44484</v>
       </c>
       <c r="I110" t="s">
         <v>3</v>
+      </c>
+      <c r="J110" s="2">
+        <v>44483</v>
+      </c>
+      <c r="L110" t="s">
+        <v>4</v>
       </c>
       <c r="M110" s="3"/>
       <c r="O110" s="4"/>
@@ -7300,11 +7341,20 @@
       <c r="AB110" s="5"/>
       <c r="AE110" s="5"/>
       <c r="AH110" s="5"/>
-      <c r="AL110" s="5"/>
+      <c r="AL110" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM110" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN110" s="2">
+        <v>44483</v>
+      </c>
+      <c r="AO110" s="4"/>
       <c r="AS110" s="5"/>
       <c r="AY110" s="5"/>
       <c r="BG110" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="BH110" t="s">
         <v>7</v>
@@ -7315,28 +7365,31 @@
     </row>
     <row r="111" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>3521103012006</v>
+        <v>3521103698762</v>
       </c>
       <c r="B111" s="2">
-        <v>44483</v>
+        <v>44491</v>
       </c>
       <c r="C111" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D111" s="2">
-        <v>36776</v>
+        <v>35393</v>
       </c>
       <c r="E111" s="2">
-        <v>44481</v>
+        <v>44488</v>
       </c>
       <c r="F111" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="J111" s="2">
-        <v>44483</v>
+        <v>44491</v>
+      </c>
+      <c r="K111" t="s">
+        <v>12</v>
       </c>
       <c r="L111" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M111" s="3"/>
       <c r="O111" s="4"/>
@@ -7349,17 +7402,22 @@
       <c r="AE111" s="5"/>
       <c r="AH111" s="5"/>
       <c r="AL111" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AM111" t="s">
         <v>5</v>
       </c>
       <c r="AN111" s="2">
-        <v>44483</v>
-      </c>
-      <c r="AO111" s="4"/>
+        <v>44491</v>
+      </c>
+      <c r="AO111" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AS111" s="5"/>
       <c r="AY111" s="5"/>
+      <c r="BE111" t="s">
+        <v>14</v>
+      </c>
       <c r="BH111" t="s">
         <v>1</v>
       </c>
@@ -7369,28 +7427,28 @@
     </row>
     <row r="112" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>3521103411978</v>
+        <v>3521103142990</v>
       </c>
       <c r="B112" s="2">
-        <v>44488</v>
+        <v>44485</v>
       </c>
       <c r="C112" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D112" s="2">
-        <v>31370</v>
+        <v>37991</v>
       </c>
       <c r="E112" s="2">
-        <v>44484</v>
+        <v>44483</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G112">
-        <v>2102715674</v>
+        <v>2102735429</v>
       </c>
       <c r="H112" s="2">
-        <v>44489</v>
+        <v>44487</v>
       </c>
       <c r="I112" t="s">
         <v>3</v>
@@ -7409,7 +7467,7 @@
       <c r="AS112" s="5"/>
       <c r="AY112" s="5"/>
       <c r="BG112" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="BH112" t="s">
         <v>7</v>
@@ -7420,34 +7478,25 @@
     </row>
     <row r="113" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>3521102312047</v>
+        <v>3521103121089</v>
       </c>
       <c r="B113" s="2">
-        <v>44474</v>
+        <v>44484</v>
       </c>
       <c r="C113" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D113" s="2">
-        <v>23927</v>
+        <v>36603</v>
       </c>
       <c r="E113" s="2">
-        <v>44471</v>
+        <v>44482</v>
       </c>
       <c r="F113" t="s">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>2102716065</v>
-      </c>
-      <c r="H113" s="2">
-        <v>44475</v>
-      </c>
-      <c r="I113" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="J113" s="2">
-        <v>44474</v>
+        <v>44484</v>
       </c>
       <c r="L113" t="s">
         <v>4</v>
@@ -7469,16 +7518,13 @@
         <v>5</v>
       </c>
       <c r="AN113" s="2">
-        <v>44474</v>
+        <v>44484</v>
       </c>
       <c r="AO113" s="4"/>
       <c r="AS113" s="5"/>
       <c r="AY113" s="5"/>
-      <c r="BG113" t="s">
-        <v>195</v>
-      </c>
       <c r="BH113" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI113" t="s">
         <v>2</v>
@@ -7486,22 +7532,31 @@
     </row>
     <row r="114" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>3521103407607</v>
+        <v>3521104329740</v>
       </c>
       <c r="B114" s="2">
-        <v>44488</v>
+        <v>44500</v>
       </c>
       <c r="C114" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D114" s="2">
-        <v>27608</v>
+        <v>44139</v>
       </c>
       <c r="E114" s="2">
-        <v>44474</v>
+        <v>44496</v>
       </c>
       <c r="F114" t="s">
-        <v>197</v>
+        <v>29</v>
+      </c>
+      <c r="J114" s="2">
+        <v>44499</v>
+      </c>
+      <c r="K114" t="s">
+        <v>12</v>
+      </c>
+      <c r="L114" t="s">
+        <v>9</v>
       </c>
       <c r="M114" s="3"/>
       <c r="O114" s="4"/>
@@ -7513,7 +7568,18 @@
       <c r="AB114" s="5"/>
       <c r="AE114" s="5"/>
       <c r="AH114" s="5"/>
-      <c r="AL114" s="5"/>
+      <c r="AL114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM114" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN114" s="2">
+        <v>44499</v>
+      </c>
+      <c r="AO114" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AS114" s="5"/>
       <c r="AY114" s="5"/>
       <c r="BH114" t="s">
@@ -7525,25 +7591,25 @@
     </row>
     <row r="115" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>3521103963458</v>
+        <v>3521102903864</v>
       </c>
       <c r="B115" s="2">
-        <v>44495</v>
+        <v>44482</v>
       </c>
       <c r="C115" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D115" s="2">
-        <v>22781</v>
+        <v>44124</v>
       </c>
       <c r="E115" s="2">
-        <v>44490</v>
+        <v>44472</v>
       </c>
       <c r="F115" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J115" s="2">
-        <v>44495</v>
+        <v>44482</v>
       </c>
       <c r="L115" t="s">
         <v>4</v>
@@ -7557,33 +7623,18 @@
       <c r="Y115" s="3"/>
       <c r="AB115" s="5"/>
       <c r="AE115" s="5"/>
-      <c r="AH115" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI115" s="2">
-        <v>44495</v>
-      </c>
-      <c r="AJ115" s="4"/>
+      <c r="AH115" s="5"/>
       <c r="AL115" s="5" t="s">
         <v>4</v>
       </c>
       <c r="AM115" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AN115" s="2">
-        <v>44495</v>
+        <v>44482</v>
       </c>
       <c r="AO115" s="4"/>
-      <c r="AR115" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS115" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT115" s="2">
-        <v>44495</v>
-      </c>
-      <c r="AU115" s="4"/>
+      <c r="AS115" s="5"/>
       <c r="AY115" s="5"/>
       <c r="BH115" t="s">
         <v>1</v>
@@ -7594,25 +7645,34 @@
     </row>
     <row r="116" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>3521102442832</v>
+        <v>3521103600395</v>
       </c>
       <c r="B116" s="2">
-        <v>44475</v>
+        <v>44490</v>
       </c>
       <c r="C116" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D116" s="2">
-        <v>33507</v>
+        <v>34733</v>
       </c>
       <c r="E116" s="2">
-        <v>44459</v>
+        <v>44486</v>
       </c>
       <c r="F116" t="s">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="G116">
+        <v>2102380021</v>
+      </c>
+      <c r="H116" s="2">
+        <v>44491</v>
+      </c>
+      <c r="I116" t="s">
+        <v>3</v>
       </c>
       <c r="J116" s="2">
-        <v>44462</v>
+        <v>44490</v>
       </c>
       <c r="L116" t="s">
         <v>4</v>
@@ -7634,13 +7694,16 @@
         <v>5</v>
       </c>
       <c r="AN116" s="2">
-        <v>44462</v>
+        <v>44490</v>
       </c>
       <c r="AO116" s="4"/>
       <c r="AS116" s="5"/>
       <c r="AY116" s="5"/>
+      <c r="BG116" t="s">
+        <v>201</v>
+      </c>
       <c r="BH116" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI116" t="s">
         <v>2</v>
@@ -7648,31 +7711,22 @@
     </row>
     <row r="117" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>3521104143679</v>
+        <v>3521102228222</v>
       </c>
       <c r="B117" s="2">
-        <v>44489</v>
+        <v>44473</v>
       </c>
       <c r="C117" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D117" s="2">
-        <v>25870</v>
+        <v>36194</v>
       </c>
       <c r="E117" s="2">
-        <v>44483</v>
+        <v>44470</v>
       </c>
       <c r="F117" t="s">
-        <v>202</v>
-      </c>
-      <c r="J117" s="2">
-        <v>44489</v>
-      </c>
-      <c r="K117" t="s">
-        <v>12</v>
-      </c>
-      <c r="L117" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="M117" s="3"/>
       <c r="O117" s="4"/>
@@ -7684,29 +7738,9 @@
       <c r="AB117" s="5"/>
       <c r="AE117" s="5"/>
       <c r="AH117" s="5"/>
-      <c r="AL117" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM117" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN117" s="2">
-        <v>44489</v>
-      </c>
-      <c r="AO117" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="AL117" s="5"/>
       <c r="AS117" s="5"/>
       <c r="AY117" s="5"/>
-      <c r="BD117" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE117" t="s">
-        <v>26</v>
-      </c>
-      <c r="BF117" s="2">
-        <v>44497</v>
-      </c>
       <c r="BH117" t="s">
         <v>1</v>
       </c>
@@ -7716,77 +7750,51 @@
     </row>
     <row r="118" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>3521102382381</v>
+        <v>3521104245317</v>
       </c>
       <c r="B118" s="2">
-        <v>44475</v>
+        <v>44498</v>
       </c>
       <c r="C118" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D118" s="2">
-        <v>33220</v>
+        <v>35327</v>
       </c>
       <c r="E118" s="2">
-        <v>44467</v>
+        <v>44496</v>
       </c>
       <c r="F118" t="s">
-        <v>204</v>
+        <v>103</v>
+      </c>
+      <c r="J118" s="2">
+        <v>44497</v>
+      </c>
+      <c r="L118" t="s">
+        <v>4</v>
       </c>
       <c r="M118" s="3"/>
       <c r="O118" s="4"/>
       <c r="P118" s="5"/>
       <c r="R118" s="4"/>
-      <c r="S118" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T118" s="2">
-        <v>44475</v>
-      </c>
-      <c r="U118" t="s">
-        <v>10</v>
-      </c>
-      <c r="V118" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="W118" s="2">
-        <v>44475</v>
-      </c>
-      <c r="X118" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="S118" s="5"/>
+      <c r="V118" s="5"/>
       <c r="Y118" s="3"/>
       <c r="AB118" s="5"/>
       <c r="AE118" s="5"/>
       <c r="AH118" s="5"/>
       <c r="AL118" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AM118" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="AN118" s="2">
-        <v>44475</v>
-      </c>
-      <c r="AO118" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR118" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS118" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT118" s="2">
-        <v>44475</v>
-      </c>
-      <c r="AU118" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>44497</v>
+      </c>
+      <c r="AO118" s="4"/>
+      <c r="AS118" s="5"/>
       <c r="AY118" s="5"/>
-      <c r="BE118" t="s">
-        <v>14</v>
-      </c>
       <c r="BH118" t="s">
         <v>1</v>
       </c>
@@ -7796,37 +7804,31 @@
     </row>
     <row r="119" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>3521103250144</v>
+        <v>3521103934639</v>
       </c>
       <c r="B119" s="2">
-        <v>44487</v>
+        <v>44495</v>
       </c>
       <c r="C119" t="s">
         <v>205</v>
       </c>
       <c r="D119" s="2">
-        <v>18086</v>
+        <v>34619</v>
       </c>
       <c r="E119" s="2">
-        <v>44482</v>
+        <v>44491</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119">
-        <v>2102590821</v>
-      </c>
-      <c r="H119" s="2">
-        <v>44488</v>
-      </c>
-      <c r="I119" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="J119" s="2">
-        <v>44487</v>
+        <v>44495</v>
+      </c>
+      <c r="K119" t="s">
+        <v>12</v>
       </c>
       <c r="L119" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M119" s="3"/>
       <c r="O119" s="4"/>
@@ -7839,25 +7841,30 @@
       <c r="AE119" s="5"/>
       <c r="AH119" s="5"/>
       <c r="AL119" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AM119" t="s">
         <v>5</v>
       </c>
       <c r="AN119" s="2">
-        <v>44487</v>
-      </c>
-      <c r="AO119" s="4"/>
+        <v>44495</v>
+      </c>
+      <c r="AO119" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AS119" s="5"/>
       <c r="AY119" s="5"/>
+      <c r="BD119" t="s">
+        <v>13</v>
+      </c>
       <c r="BE119" t="s">
-        <v>14</v>
-      </c>
-      <c r="BG119" t="s">
-        <v>205</v>
+        <v>25</v>
+      </c>
+      <c r="BF119" s="2">
+        <v>44519</v>
       </c>
       <c r="BH119" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI119" t="s">
         <v>2</v>
@@ -7865,28 +7872,31 @@
     </row>
     <row r="120" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>3521102385488</v>
+        <v>3521104232138</v>
       </c>
       <c r="B120" s="2">
-        <v>44474</v>
+        <v>44498</v>
       </c>
       <c r="C120" t="s">
         <v>206</v>
       </c>
       <c r="D120" s="2">
-        <v>31608</v>
+        <v>35205</v>
       </c>
       <c r="E120" s="2">
-        <v>44472</v>
+        <v>44495</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="J120" s="2">
-        <v>44474</v>
+        <v>44498</v>
+      </c>
+      <c r="K120" t="s">
+        <v>12</v>
       </c>
       <c r="L120" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M120" s="3"/>
       <c r="O120" s="4"/>
@@ -7899,15 +7909,17 @@
       <c r="AE120" s="5"/>
       <c r="AH120" s="5"/>
       <c r="AL120" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AM120" t="s">
         <v>5</v>
       </c>
       <c r="AN120" s="2">
-        <v>44474</v>
-      </c>
-      <c r="AO120" s="4"/>
+        <v>44498</v>
+      </c>
+      <c r="AO120" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AS120" s="5"/>
       <c r="AY120" s="5"/>
       <c r="BH120" t="s">
@@ -7919,22 +7931,28 @@
     </row>
     <row r="121" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>3521102303060</v>
+        <v>3521103712790</v>
       </c>
       <c r="B121" s="2">
-        <v>44474</v>
+        <v>44492</v>
       </c>
       <c r="C121" t="s">
         <v>207</v>
       </c>
       <c r="D121" s="2">
-        <v>33621</v>
+        <v>35466</v>
       </c>
       <c r="E121" s="2">
-        <v>44471</v>
+        <v>44488</v>
       </c>
       <c r="F121" t="s">
-        <v>57</v>
+        <v>17</v>
+      </c>
+      <c r="J121" s="2">
+        <v>44492</v>
+      </c>
+      <c r="L121" t="s">
+        <v>4</v>
       </c>
       <c r="M121" s="3"/>
       <c r="O121" s="4"/>
@@ -7946,7 +7964,16 @@
       <c r="AB121" s="5"/>
       <c r="AE121" s="5"/>
       <c r="AH121" s="5"/>
-      <c r="AL121" s="5"/>
+      <c r="AL121" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM121" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN121" s="2">
+        <v>44492</v>
+      </c>
+      <c r="AO121" s="4"/>
       <c r="AS121" s="5"/>
       <c r="AY121" s="5"/>
       <c r="BH121" t="s">
@@ -7958,28 +7985,31 @@
     </row>
     <row r="122" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>3521102678257</v>
+        <v>3521102116147</v>
       </c>
       <c r="B122" s="2">
-        <v>44478</v>
+        <v>44472</v>
       </c>
       <c r="C122" t="s">
         <v>208</v>
       </c>
       <c r="D122" s="2">
-        <v>36062</v>
+        <v>20452</v>
       </c>
       <c r="E122" s="2">
-        <v>44476</v>
+        <v>44471</v>
       </c>
       <c r="F122" t="s">
         <v>209</v>
       </c>
-      <c r="J122" s="2">
-        <v>44478</v>
-      </c>
-      <c r="L122" t="s">
-        <v>4</v>
+      <c r="G122">
+        <v>2102716077</v>
+      </c>
+      <c r="H122" s="2">
+        <v>44473</v>
+      </c>
+      <c r="I122" t="s">
+        <v>3</v>
       </c>
       <c r="M122" s="3"/>
       <c r="O122" s="4"/>
@@ -7991,20 +8021,14 @@
       <c r="AB122" s="5"/>
       <c r="AE122" s="5"/>
       <c r="AH122" s="5"/>
-      <c r="AL122" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM122" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN122" s="2">
-        <v>44478</v>
-      </c>
-      <c r="AO122" s="4"/>
+      <c r="AL122" s="5"/>
       <c r="AS122" s="5"/>
       <c r="AY122" s="5"/>
+      <c r="BG122" t="s">
+        <v>208</v>
+      </c>
       <c r="BH122" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI122" t="s">
         <v>2</v>
@@ -8012,28 +8036,22 @@
     </row>
     <row r="123" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>3521102809508</v>
+        <v>3521102791789</v>
       </c>
       <c r="B123" s="2">
-        <v>44481</v>
+        <v>44480</v>
       </c>
       <c r="C123" t="s">
         <v>210</v>
       </c>
       <c r="D123" s="2">
-        <v>33232</v>
+        <v>29496</v>
       </c>
       <c r="E123" s="2">
         <v>44475</v>
       </c>
       <c r="F123" t="s">
-        <v>211</v>
-      </c>
-      <c r="J123" s="2">
-        <v>44481</v>
-      </c>
-      <c r="L123" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="M123" s="3"/>
       <c r="O123" s="4"/>
@@ -8045,20 +8063,11 @@
       <c r="AB123" s="5"/>
       <c r="AE123" s="5"/>
       <c r="AH123" s="5"/>
-      <c r="AL123" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM123" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN123" s="2">
-        <v>44481</v>
-      </c>
-      <c r="AO123" s="4"/>
+      <c r="AL123" s="5"/>
       <c r="AS123" s="5"/>
       <c r="AY123" s="5"/>
       <c r="BH123" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="BI123" t="s">
         <v>2</v>
@@ -8066,28 +8075,31 @@
     </row>
     <row r="124" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>3521103146681</v>
+        <v>3521102098522</v>
       </c>
       <c r="B124" s="2">
-        <v>44484</v>
+        <v>44471</v>
       </c>
       <c r="C124" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D124" s="2">
-        <v>30822</v>
+        <v>24880</v>
       </c>
       <c r="E124" s="2">
-        <v>44480</v>
+        <v>44465</v>
       </c>
       <c r="F124" t="s">
-        <v>155</v>
-      </c>
-      <c r="J124" s="2">
-        <v>44484</v>
-      </c>
-      <c r="L124" t="s">
-        <v>4</v>
+        <v>196</v>
+      </c>
+      <c r="G124">
+        <v>2102716654</v>
+      </c>
+      <c r="H124" s="2">
+        <v>44473</v>
+      </c>
+      <c r="I124" t="s">
+        <v>3</v>
       </c>
       <c r="M124" s="3"/>
       <c r="O124" s="4"/>
@@ -8099,20 +8111,23 @@
       <c r="AB124" s="5"/>
       <c r="AE124" s="5"/>
       <c r="AH124" s="5"/>
-      <c r="AL124" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM124" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN124" s="2">
-        <v>44484</v>
-      </c>
-      <c r="AO124" s="4"/>
+      <c r="AL124" s="5"/>
       <c r="AS124" s="5"/>
       <c r="AY124" s="5"/>
+      <c r="BD124" t="s">
+        <v>6</v>
+      </c>
+      <c r="BE124" t="s">
+        <v>14</v>
+      </c>
+      <c r="BF124" s="2">
+        <v>44475</v>
+      </c>
+      <c r="BG124" t="s">
+        <v>211</v>
+      </c>
       <c r="BH124" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BI124" t="s">
         <v>2</v>
@@ -8120,37 +8135,31 @@
     </row>
     <row r="125" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>3521102339622</v>
+        <v>3521104287602</v>
       </c>
       <c r="B125" s="2">
-        <v>44474</v>
+        <v>44499</v>
       </c>
       <c r="C125" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D125" s="2">
-        <v>34995</v>
+        <v>27961</v>
       </c>
       <c r="E125" s="2">
-        <v>44473</v>
+        <v>44496</v>
       </c>
       <c r="F125" t="s">
-        <v>214</v>
-      </c>
-      <c r="G125">
-        <v>2102716225</v>
-      </c>
-      <c r="H125" s="2">
-        <v>44475</v>
-      </c>
-      <c r="I125" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J125" s="2">
-        <v>44474</v>
+        <v>44499</v>
+      </c>
+      <c r="K125" t="s">
+        <v>12</v>
       </c>
       <c r="L125" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M125" s="3"/>
       <c r="O125" s="4"/>
@@ -8163,1485 +8172,43 @@
       <c r="AE125" s="5"/>
       <c r="AH125" s="5"/>
       <c r="AL125" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AM125" t="s">
         <v>5</v>
       </c>
       <c r="AN125" s="2">
-        <v>44474</v>
-      </c>
-      <c r="AO125" s="4"/>
+        <v>44499</v>
+      </c>
+      <c r="AO125" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AS125" s="5"/>
       <c r="AY125" s="5"/>
-      <c r="BG125" t="s">
-        <v>213</v>
+      <c r="BD125" t="s">
+        <v>13</v>
+      </c>
+      <c r="BE125" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF125" s="2">
+        <v>44566</v>
       </c>
       <c r="BH125" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BI125" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>3521104040871</v>
-      </c>
-      <c r="B126" s="2">
-        <v>44496</v>
-      </c>
-      <c r="C126" t="s">
-        <v>215</v>
-      </c>
-      <c r="D126" s="2">
-        <v>36156</v>
-      </c>
-      <c r="E126" s="2">
-        <v>44492</v>
-      </c>
-      <c r="F126" t="s">
-        <v>216</v>
-      </c>
-      <c r="J126" s="2">
-        <v>44496</v>
-      </c>
-      <c r="L126" t="s">
-        <v>4</v>
-      </c>
-      <c r="M126" s="3"/>
-      <c r="O126" s="4"/>
-      <c r="P126" s="5"/>
-      <c r="R126" s="4"/>
-      <c r="S126" s="5"/>
-      <c r="V126" s="5"/>
-      <c r="Y126" s="3"/>
-      <c r="AB126" s="5"/>
-      <c r="AE126" s="5"/>
-      <c r="AH126" s="5"/>
-      <c r="AL126" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM126" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN126" s="2">
-        <v>44496</v>
-      </c>
-      <c r="AO126" s="4"/>
-      <c r="AS126" s="5"/>
-      <c r="AY126" s="5"/>
-      <c r="BH126" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI126" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>3521103868101</v>
-      </c>
-      <c r="B127" s="2">
-        <v>44494</v>
-      </c>
-      <c r="C127" t="s">
-        <v>217</v>
-      </c>
-      <c r="D127" s="2">
-        <v>27419</v>
-      </c>
-      <c r="E127" s="2">
-        <v>44492</v>
-      </c>
-      <c r="F127" t="s">
-        <v>218</v>
-      </c>
-      <c r="J127" s="2">
-        <v>44494</v>
-      </c>
-      <c r="L127" t="s">
-        <v>4</v>
-      </c>
-      <c r="M127" s="3"/>
-      <c r="O127" s="4"/>
-      <c r="P127" s="5"/>
-      <c r="R127" s="4"/>
-      <c r="S127" s="5"/>
-      <c r="V127" s="5"/>
-      <c r="Y127" s="3"/>
-      <c r="AB127" s="5"/>
-      <c r="AE127" s="5"/>
-      <c r="AH127" s="5"/>
-      <c r="AL127" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM127" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN127" s="2">
-        <v>44494</v>
-      </c>
-      <c r="AO127" s="4"/>
-      <c r="AS127" s="5"/>
-      <c r="AY127" s="5"/>
-      <c r="BH127" t="s">
-        <v>24</v>
-      </c>
-      <c r="BI127" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>3521102055418</v>
-      </c>
-      <c r="B128" s="2">
-        <v>44470</v>
-      </c>
-      <c r="C128" t="s">
-        <v>219</v>
-      </c>
-      <c r="D128" s="2">
-        <v>36887</v>
-      </c>
-      <c r="E128" s="2">
-        <v>44435</v>
-      </c>
-      <c r="F128" t="s">
-        <v>25</v>
-      </c>
-      <c r="J128" s="2">
-        <v>44470</v>
-      </c>
-      <c r="L128" t="s">
-        <v>4</v>
-      </c>
-      <c r="M128" s="3"/>
-      <c r="O128" s="4"/>
-      <c r="P128" s="5"/>
-      <c r="R128" s="4"/>
-      <c r="S128" s="5"/>
-      <c r="V128" s="5"/>
-      <c r="Y128" s="3"/>
-      <c r="AB128" s="5"/>
-      <c r="AE128" s="5"/>
-      <c r="AH128" s="5"/>
-      <c r="AL128" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM128" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN128" s="2">
-        <v>44470</v>
-      </c>
-      <c r="AO128" s="4"/>
-      <c r="AS128" s="5"/>
-      <c r="AY128" s="5"/>
-      <c r="BH128" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI128" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>3521103895582</v>
-      </c>
-      <c r="B129" s="2">
-        <v>44494</v>
-      </c>
-      <c r="C129" t="s">
-        <v>220</v>
-      </c>
-      <c r="D129" s="2">
-        <v>34125</v>
-      </c>
-      <c r="E129" s="2">
-        <v>44491</v>
-      </c>
-      <c r="F129" t="s">
-        <v>200</v>
-      </c>
-      <c r="J129" s="2">
-        <v>44494</v>
-      </c>
-      <c r="L129" t="s">
-        <v>4</v>
-      </c>
-      <c r="M129" s="3"/>
-      <c r="O129" s="4"/>
-      <c r="P129" s="5"/>
-      <c r="R129" s="4"/>
-      <c r="S129" s="5"/>
-      <c r="V129" s="5"/>
-      <c r="Y129" s="3"/>
-      <c r="AB129" s="5"/>
-      <c r="AE129" s="5"/>
-      <c r="AH129" s="5"/>
-      <c r="AL129" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM129" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN129" s="2">
-        <v>44494</v>
-      </c>
-      <c r="AO129" s="4"/>
-      <c r="AS129" s="5"/>
-      <c r="AY129" s="5"/>
-      <c r="BH129" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI129" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>3521102876543</v>
-      </c>
-      <c r="B130" s="2">
-        <v>44482</v>
-      </c>
-      <c r="C130" t="s">
-        <v>221</v>
-      </c>
-      <c r="D130" s="2">
-        <v>31562</v>
-      </c>
-      <c r="E130" s="2">
-        <v>44479</v>
-      </c>
-      <c r="F130" t="s">
-        <v>33</v>
-      </c>
-      <c r="J130" s="2">
-        <v>44482</v>
-      </c>
-      <c r="L130" t="s">
-        <v>4</v>
-      </c>
-      <c r="M130" s="3"/>
-      <c r="O130" s="4"/>
-      <c r="P130" s="5"/>
-      <c r="R130" s="4"/>
-      <c r="S130" s="5"/>
-      <c r="V130" s="5"/>
-      <c r="Y130" s="3"/>
-      <c r="AB130" s="5"/>
-      <c r="AE130" s="5"/>
-      <c r="AH130" s="5"/>
-      <c r="AL130" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM130" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN130" s="2">
-        <v>44482</v>
-      </c>
-      <c r="AO130" s="4"/>
-      <c r="AS130" s="5"/>
-      <c r="AY130" s="5"/>
-      <c r="BH130" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI130" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>3521102643586</v>
-      </c>
-      <c r="B131" s="2">
-        <v>44477</v>
-      </c>
-      <c r="C131" t="s">
-        <v>222</v>
-      </c>
-      <c r="D131" s="2">
-        <v>27967</v>
-      </c>
-      <c r="E131" s="2">
-        <v>44474</v>
-      </c>
-      <c r="F131" t="s">
-        <v>8</v>
-      </c>
-      <c r="M131" s="3"/>
-      <c r="O131" s="4"/>
-      <c r="P131" s="5"/>
-      <c r="R131" s="4"/>
-      <c r="S131" s="5"/>
-      <c r="V131" s="5"/>
-      <c r="Y131" s="3"/>
-      <c r="AB131" s="5"/>
-      <c r="AE131" s="5"/>
-      <c r="AH131" s="5"/>
-      <c r="AL131" s="5"/>
-      <c r="AS131" s="5"/>
-      <c r="AY131" s="5"/>
-      <c r="BH131" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI131" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>3521102682520</v>
-      </c>
-      <c r="B132" s="2">
-        <v>44478</v>
-      </c>
-      <c r="C132" t="s">
-        <v>223</v>
-      </c>
-      <c r="D132" s="2">
-        <v>22118</v>
-      </c>
-      <c r="E132" s="2">
-        <v>44475</v>
-      </c>
-      <c r="F132" t="s">
-        <v>70</v>
-      </c>
-      <c r="G132">
-        <v>2102716778</v>
-      </c>
-      <c r="H132" s="2">
-        <v>44480</v>
-      </c>
-      <c r="I132" t="s">
-        <v>3</v>
-      </c>
-      <c r="J132" s="2">
-        <v>44478</v>
-      </c>
-      <c r="L132" t="s">
-        <v>4</v>
-      </c>
-      <c r="M132" s="3"/>
-      <c r="O132" s="4"/>
-      <c r="P132" s="5"/>
-      <c r="R132" s="4"/>
-      <c r="S132" s="5"/>
-      <c r="V132" s="5"/>
-      <c r="Y132" s="3"/>
-      <c r="AB132" s="5"/>
-      <c r="AE132" s="5"/>
-      <c r="AH132" s="5"/>
-      <c r="AL132" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM132" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN132" s="2">
-        <v>44478</v>
-      </c>
-      <c r="AO132" s="4"/>
-      <c r="AS132" s="5"/>
-      <c r="AY132" s="5"/>
-      <c r="BG132" t="s">
-        <v>223</v>
-      </c>
-      <c r="BH132" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI132" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>3521102304819</v>
-      </c>
-      <c r="B133" s="2">
-        <v>44473</v>
-      </c>
-      <c r="C133" t="s">
-        <v>224</v>
-      </c>
-      <c r="D133" s="2">
-        <v>41321</v>
-      </c>
-      <c r="E133" s="2">
-        <v>44471</v>
-      </c>
-      <c r="F133" t="s">
-        <v>225</v>
-      </c>
-      <c r="M133" s="3"/>
-      <c r="O133" s="4"/>
-      <c r="P133" s="5"/>
-      <c r="R133" s="4"/>
-      <c r="S133" s="5"/>
-      <c r="V133" s="5"/>
-      <c r="Y133" s="3"/>
-      <c r="AB133" s="5"/>
-      <c r="AE133" s="5"/>
-      <c r="AH133" s="5"/>
-      <c r="AL133" s="5"/>
-      <c r="AS133" s="5"/>
-      <c r="AY133" s="5"/>
-      <c r="BH133" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI133" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>3521102845585</v>
-      </c>
-      <c r="B134" s="2">
-        <v>44482</v>
-      </c>
-      <c r="C134" t="s">
-        <v>226</v>
-      </c>
-      <c r="D134" s="2">
-        <v>35896</v>
-      </c>
-      <c r="E134" s="2">
-        <v>44481</v>
-      </c>
-      <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134">
-        <v>2102664742</v>
-      </c>
-      <c r="H134" s="2">
-        <v>44482</v>
-      </c>
-      <c r="I134" t="s">
-        <v>3</v>
-      </c>
-      <c r="J134" s="2">
-        <v>44482</v>
-      </c>
-      <c r="L134" t="s">
-        <v>4</v>
-      </c>
-      <c r="M134" s="3"/>
-      <c r="O134" s="4"/>
-      <c r="P134" s="5"/>
-      <c r="R134" s="4"/>
-      <c r="S134" s="5"/>
-      <c r="V134" s="5"/>
-      <c r="Y134" s="3"/>
-      <c r="AB134" s="5"/>
-      <c r="AE134" s="5"/>
-      <c r="AH134" s="5"/>
-      <c r="AL134" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM134" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN134" s="2">
-        <v>44482</v>
-      </c>
-      <c r="AO134" s="4"/>
-      <c r="AS134" s="5"/>
-      <c r="AY134" s="5"/>
-      <c r="BG134" t="s">
-        <v>226</v>
-      </c>
-      <c r="BH134" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>3521103289835</v>
-      </c>
-      <c r="B135" s="2">
-        <v>44487</v>
-      </c>
-      <c r="C135" t="s">
-        <v>227</v>
-      </c>
-      <c r="D135" s="2">
-        <v>41007</v>
-      </c>
-      <c r="E135" s="2">
-        <v>44485</v>
-      </c>
-      <c r="F135" t="s">
-        <v>104</v>
-      </c>
-      <c r="G135">
-        <v>2102735385</v>
-      </c>
-      <c r="H135" s="2">
-        <v>44488</v>
-      </c>
-      <c r="I135" t="s">
-        <v>3</v>
-      </c>
-      <c r="J135" s="2">
-        <v>44487</v>
-      </c>
-      <c r="L135" t="s">
-        <v>4</v>
-      </c>
-      <c r="M135" s="3"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="5"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="5"/>
-      <c r="V135" s="5"/>
-      <c r="Y135" s="3"/>
-      <c r="AB135" s="5"/>
-      <c r="AE135" s="5"/>
-      <c r="AH135" s="5"/>
-      <c r="AL135" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM135" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN135" s="2">
-        <v>44487</v>
-      </c>
-      <c r="AO135" s="4"/>
-      <c r="AS135" s="5"/>
-      <c r="AY135" s="5"/>
-      <c r="BG135" t="s">
-        <v>227</v>
-      </c>
-      <c r="BH135" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI135" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>3521103024624</v>
-      </c>
-      <c r="B136" s="2">
-        <v>44483</v>
-      </c>
-      <c r="C136" t="s">
-        <v>228</v>
-      </c>
-      <c r="D136" s="2">
-        <v>35780</v>
-      </c>
-      <c r="E136" s="2">
-        <v>44481</v>
-      </c>
-      <c r="F136" t="s">
-        <v>38</v>
-      </c>
-      <c r="G136">
-        <v>2102716769</v>
-      </c>
-      <c r="H136" s="2">
-        <v>44484</v>
-      </c>
-      <c r="I136" t="s">
-        <v>3</v>
-      </c>
-      <c r="J136" s="2">
-        <v>44483</v>
-      </c>
-      <c r="L136" t="s">
-        <v>4</v>
-      </c>
-      <c r="M136" s="3"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="5"/>
-      <c r="R136" s="4"/>
-      <c r="S136" s="5"/>
-      <c r="V136" s="5"/>
-      <c r="Y136" s="3"/>
-      <c r="AB136" s="5"/>
-      <c r="AE136" s="5"/>
-      <c r="AH136" s="5"/>
-      <c r="AL136" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM136" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN136" s="2">
-        <v>44483</v>
-      </c>
-      <c r="AO136" s="4"/>
-      <c r="AS136" s="5"/>
-      <c r="AY136" s="5"/>
-      <c r="BG136" t="s">
-        <v>228</v>
-      </c>
-      <c r="BH136" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI136" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>3521103698762</v>
-      </c>
-      <c r="B137" s="2">
-        <v>44491</v>
-      </c>
-      <c r="C137" t="s">
-        <v>229</v>
-      </c>
-      <c r="D137" s="2">
-        <v>35393</v>
-      </c>
-      <c r="E137" s="2">
-        <v>44488</v>
-      </c>
-      <c r="F137" t="s">
-        <v>230</v>
-      </c>
-      <c r="J137" s="2">
-        <v>44491</v>
-      </c>
-      <c r="K137" t="s">
-        <v>12</v>
-      </c>
-      <c r="L137" t="s">
-        <v>9</v>
-      </c>
-      <c r="M137" s="3"/>
-      <c r="O137" s="4"/>
-      <c r="P137" s="5"/>
-      <c r="R137" s="4"/>
-      <c r="S137" s="5"/>
-      <c r="V137" s="5"/>
-      <c r="Y137" s="3"/>
-      <c r="AB137" s="5"/>
-      <c r="AE137" s="5"/>
-      <c r="AH137" s="5"/>
-      <c r="AL137" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM137" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN137" s="2">
-        <v>44491</v>
-      </c>
-      <c r="AO137" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS137" s="5"/>
-      <c r="AY137" s="5"/>
-      <c r="BE137" t="s">
-        <v>14</v>
-      </c>
-      <c r="BH137" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI137" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>3521103142990</v>
-      </c>
-      <c r="B138" s="2">
-        <v>44485</v>
-      </c>
-      <c r="C138" t="s">
-        <v>231</v>
-      </c>
-      <c r="D138" s="2">
-        <v>37991</v>
-      </c>
-      <c r="E138" s="2">
-        <v>44483</v>
-      </c>
-      <c r="F138" t="s">
-        <v>70</v>
-      </c>
-      <c r="G138">
-        <v>2102735429</v>
-      </c>
-      <c r="H138" s="2">
-        <v>44487</v>
-      </c>
-      <c r="I138" t="s">
-        <v>3</v>
-      </c>
-      <c r="M138" s="3"/>
-      <c r="O138" s="4"/>
-      <c r="P138" s="5"/>
-      <c r="R138" s="4"/>
-      <c r="S138" s="5"/>
-      <c r="V138" s="5"/>
-      <c r="Y138" s="3"/>
-      <c r="AB138" s="5"/>
-      <c r="AE138" s="5"/>
-      <c r="AH138" s="5"/>
-      <c r="AL138" s="5"/>
-      <c r="AS138" s="5"/>
-      <c r="AY138" s="5"/>
-      <c r="BG138" t="s">
-        <v>231</v>
-      </c>
-      <c r="BH138" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI138" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>3521103121089</v>
-      </c>
-      <c r="B139" s="2">
-        <v>44484</v>
-      </c>
-      <c r="C139" t="s">
-        <v>232</v>
-      </c>
-      <c r="D139" s="2">
-        <v>36603</v>
-      </c>
-      <c r="E139" s="2">
-        <v>44482</v>
-      </c>
-      <c r="F139" t="s">
-        <v>35</v>
-      </c>
-      <c r="J139" s="2">
-        <v>44484</v>
-      </c>
-      <c r="L139" t="s">
-        <v>4</v>
-      </c>
-      <c r="M139" s="3"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="5"/>
-      <c r="R139" s="4"/>
-      <c r="S139" s="5"/>
-      <c r="V139" s="5"/>
-      <c r="Y139" s="3"/>
-      <c r="AB139" s="5"/>
-      <c r="AE139" s="5"/>
-      <c r="AH139" s="5"/>
-      <c r="AL139" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM139" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN139" s="2">
-        <v>44484</v>
-      </c>
-      <c r="AO139" s="4"/>
-      <c r="AS139" s="5"/>
-      <c r="AY139" s="5"/>
-      <c r="BH139" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI139" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>3521104329740</v>
-      </c>
-      <c r="B140" s="2">
-        <v>44500</v>
-      </c>
-      <c r="C140" t="s">
-        <v>233</v>
-      </c>
-      <c r="D140" s="2">
-        <v>44139</v>
-      </c>
-      <c r="E140" s="2">
-        <v>44496</v>
-      </c>
-      <c r="F140" t="s">
-        <v>30</v>
-      </c>
-      <c r="J140" s="2">
-        <v>44499</v>
-      </c>
-      <c r="K140" t="s">
-        <v>12</v>
-      </c>
-      <c r="L140" t="s">
-        <v>9</v>
-      </c>
-      <c r="M140" s="3"/>
-      <c r="O140" s="4"/>
-      <c r="P140" s="5"/>
-      <c r="R140" s="4"/>
-      <c r="S140" s="5"/>
-      <c r="V140" s="5"/>
-      <c r="Y140" s="3"/>
-      <c r="AB140" s="5"/>
-      <c r="AE140" s="5"/>
-      <c r="AH140" s="5"/>
-      <c r="AL140" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM140" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN140" s="2">
-        <v>44499</v>
-      </c>
-      <c r="AO140" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS140" s="5"/>
-      <c r="AY140" s="5"/>
-      <c r="BH140" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI140" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>3521102903864</v>
-      </c>
-      <c r="B141" s="2">
-        <v>44482</v>
-      </c>
-      <c r="C141" t="s">
-        <v>234</v>
-      </c>
-      <c r="D141" s="2">
-        <v>44124</v>
-      </c>
-      <c r="E141" s="2">
-        <v>44472</v>
-      </c>
-      <c r="F141" t="s">
-        <v>20</v>
-      </c>
-      <c r="J141" s="2">
-        <v>44482</v>
-      </c>
-      <c r="L141" t="s">
-        <v>4</v>
-      </c>
-      <c r="M141" s="3"/>
-      <c r="O141" s="4"/>
-      <c r="P141" s="5"/>
-      <c r="R141" s="4"/>
-      <c r="S141" s="5"/>
-      <c r="V141" s="5"/>
-      <c r="Y141" s="3"/>
-      <c r="AB141" s="5"/>
-      <c r="AE141" s="5"/>
-      <c r="AH141" s="5"/>
-      <c r="AL141" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM141" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN141" s="2">
-        <v>44482</v>
-      </c>
-      <c r="AO141" s="4"/>
-      <c r="AS141" s="5"/>
-      <c r="AY141" s="5"/>
-      <c r="BH141" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI141" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>3521103600395</v>
-      </c>
-      <c r="B142" s="2">
-        <v>44490</v>
-      </c>
-      <c r="C142" t="s">
-        <v>235</v>
-      </c>
-      <c r="D142" s="2">
-        <v>34733</v>
-      </c>
-      <c r="E142" s="2">
-        <v>44486</v>
-      </c>
-      <c r="F142" t="s">
-        <v>236</v>
-      </c>
-      <c r="G142">
-        <v>2102380021</v>
-      </c>
-      <c r="H142" s="2">
-        <v>44491</v>
-      </c>
-      <c r="I142" t="s">
-        <v>3</v>
-      </c>
-      <c r="J142" s="2">
-        <v>44490</v>
-      </c>
-      <c r="L142" t="s">
-        <v>4</v>
-      </c>
-      <c r="M142" s="3"/>
-      <c r="O142" s="4"/>
-      <c r="P142" s="5"/>
-      <c r="R142" s="4"/>
-      <c r="S142" s="5"/>
-      <c r="V142" s="5"/>
-      <c r="Y142" s="3"/>
-      <c r="AB142" s="5"/>
-      <c r="AE142" s="5"/>
-      <c r="AH142" s="5"/>
-      <c r="AL142" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM142" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN142" s="2">
-        <v>44490</v>
-      </c>
-      <c r="AO142" s="4"/>
-      <c r="AS142" s="5"/>
-      <c r="AY142" s="5"/>
-      <c r="BG142" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH142" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI142" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>3521102228222</v>
-      </c>
-      <c r="B143" s="2">
-        <v>44473</v>
-      </c>
-      <c r="C143" t="s">
-        <v>237</v>
-      </c>
-      <c r="D143" s="2">
-        <v>36194</v>
-      </c>
-      <c r="E143" s="2">
-        <v>44470</v>
-      </c>
-      <c r="F143" t="s">
-        <v>70</v>
-      </c>
-      <c r="M143" s="3"/>
-      <c r="O143" s="4"/>
-      <c r="P143" s="5"/>
-      <c r="R143" s="4"/>
-      <c r="S143" s="5"/>
-      <c r="V143" s="5"/>
-      <c r="Y143" s="3"/>
-      <c r="AB143" s="5"/>
-      <c r="AE143" s="5"/>
-      <c r="AH143" s="5"/>
-      <c r="AL143" s="5"/>
-      <c r="AS143" s="5"/>
-      <c r="AY143" s="5"/>
-      <c r="BH143" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI143" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>3521104245317</v>
-      </c>
-      <c r="B144" s="2">
-        <v>44498</v>
-      </c>
-      <c r="C144" t="s">
-        <v>238</v>
-      </c>
-      <c r="D144" s="2">
-        <v>35327</v>
-      </c>
-      <c r="E144" s="2">
-        <v>44496</v>
-      </c>
-      <c r="F144" t="s">
-        <v>137</v>
-      </c>
-      <c r="J144" s="2">
-        <v>44497</v>
-      </c>
-      <c r="L144" t="s">
-        <v>4</v>
-      </c>
-      <c r="M144" s="3"/>
-      <c r="O144" s="4"/>
-      <c r="P144" s="5"/>
-      <c r="R144" s="4"/>
-      <c r="S144" s="5"/>
-      <c r="V144" s="5"/>
-      <c r="Y144" s="3"/>
-      <c r="AB144" s="5"/>
-      <c r="AE144" s="5"/>
-      <c r="AH144" s="5"/>
-      <c r="AL144" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM144" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN144" s="2">
-        <v>44497</v>
-      </c>
-      <c r="AO144" s="4"/>
-      <c r="AS144" s="5"/>
-      <c r="AY144" s="5"/>
-      <c r="BH144" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI144" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>3521103934639</v>
-      </c>
-      <c r="B145" s="2">
-        <v>44495</v>
-      </c>
-      <c r="C145" t="s">
-        <v>239</v>
-      </c>
-      <c r="D145" s="2">
-        <v>34619</v>
-      </c>
-      <c r="E145" s="2">
-        <v>44491</v>
-      </c>
-      <c r="F145" t="s">
-        <v>28</v>
-      </c>
-      <c r="J145" s="2">
-        <v>44495</v>
-      </c>
-      <c r="K145" t="s">
-        <v>12</v>
-      </c>
-      <c r="L145" t="s">
-        <v>9</v>
-      </c>
-      <c r="M145" s="3"/>
-      <c r="O145" s="4"/>
-      <c r="P145" s="5"/>
-      <c r="R145" s="4"/>
-      <c r="S145" s="5"/>
-      <c r="V145" s="5"/>
-      <c r="Y145" s="3"/>
-      <c r="AB145" s="5"/>
-      <c r="AE145" s="5"/>
-      <c r="AH145" s="5"/>
-      <c r="AL145" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM145" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN145" s="2">
-        <v>44495</v>
-      </c>
-      <c r="AO145" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS145" s="5"/>
-      <c r="AY145" s="5"/>
-      <c r="BD145" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE145" t="s">
-        <v>26</v>
-      </c>
-      <c r="BF145" s="2">
-        <v>44519</v>
-      </c>
-      <c r="BH145" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI145" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>3521104232138</v>
-      </c>
-      <c r="B146" s="2">
-        <v>44498</v>
-      </c>
-      <c r="C146" t="s">
-        <v>240</v>
-      </c>
-      <c r="D146" s="2">
-        <v>35205</v>
-      </c>
-      <c r="E146" s="2">
-        <v>44495</v>
-      </c>
-      <c r="F146" t="s">
-        <v>92</v>
-      </c>
-      <c r="J146" s="2">
-        <v>44498</v>
-      </c>
-      <c r="K146" t="s">
-        <v>12</v>
-      </c>
-      <c r="L146" t="s">
-        <v>9</v>
-      </c>
-      <c r="M146" s="3"/>
-      <c r="O146" s="4"/>
-      <c r="P146" s="5"/>
-      <c r="R146" s="4"/>
-      <c r="S146" s="5"/>
-      <c r="V146" s="5"/>
-      <c r="Y146" s="3"/>
-      <c r="AB146" s="5"/>
-      <c r="AE146" s="5"/>
-      <c r="AH146" s="5"/>
-      <c r="AL146" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM146" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN146" s="2">
-        <v>44498</v>
-      </c>
-      <c r="AO146" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS146" s="5"/>
-      <c r="AY146" s="5"/>
-      <c r="BH146" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI146" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>3521103712790</v>
-      </c>
-      <c r="B147" s="2">
-        <v>44492</v>
-      </c>
-      <c r="C147" t="s">
-        <v>241</v>
-      </c>
-      <c r="D147" s="2">
-        <v>35466</v>
-      </c>
-      <c r="E147" s="2">
-        <v>44488</v>
-      </c>
-      <c r="F147" t="s">
-        <v>17</v>
-      </c>
-      <c r="J147" s="2">
-        <v>44492</v>
-      </c>
-      <c r="L147" t="s">
-        <v>4</v>
-      </c>
-      <c r="M147" s="3"/>
-      <c r="O147" s="4"/>
-      <c r="P147" s="5"/>
-      <c r="R147" s="4"/>
-      <c r="S147" s="5"/>
-      <c r="V147" s="5"/>
-      <c r="Y147" s="3"/>
-      <c r="AB147" s="5"/>
-      <c r="AE147" s="5"/>
-      <c r="AH147" s="5"/>
-      <c r="AL147" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM147" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN147" s="2">
-        <v>44492</v>
-      </c>
-      <c r="AO147" s="4"/>
-      <c r="AS147" s="5"/>
-      <c r="AY147" s="5"/>
-      <c r="BH147" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI147" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>3521102116147</v>
-      </c>
-      <c r="B148" s="2">
-        <v>44472</v>
-      </c>
-      <c r="C148" t="s">
-        <v>242</v>
-      </c>
-      <c r="D148" s="2">
-        <v>20452</v>
-      </c>
-      <c r="E148" s="2">
-        <v>44471</v>
-      </c>
-      <c r="F148" t="s">
-        <v>243</v>
-      </c>
-      <c r="G148">
-        <v>2102716077</v>
-      </c>
-      <c r="H148" s="2">
-        <v>44473</v>
-      </c>
-      <c r="I148" t="s">
-        <v>3</v>
-      </c>
-      <c r="M148" s="3"/>
-      <c r="O148" s="4"/>
-      <c r="P148" s="5"/>
-      <c r="R148" s="4"/>
-      <c r="S148" s="5"/>
-      <c r="V148" s="5"/>
-      <c r="Y148" s="3"/>
-      <c r="AB148" s="5"/>
-      <c r="AE148" s="5"/>
-      <c r="AH148" s="5"/>
-      <c r="AL148" s="5"/>
-      <c r="AS148" s="5"/>
-      <c r="AY148" s="5"/>
-      <c r="BG148" t="s">
-        <v>242</v>
-      </c>
-      <c r="BH148" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI148" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>3521102791789</v>
-      </c>
-      <c r="B149" s="2">
-        <v>44480</v>
-      </c>
-      <c r="C149" t="s">
-        <v>244</v>
-      </c>
-      <c r="D149" s="2">
-        <v>29496</v>
-      </c>
-      <c r="E149" s="2">
-        <v>44475</v>
-      </c>
-      <c r="F149" t="s">
-        <v>123</v>
-      </c>
-      <c r="M149" s="3"/>
-      <c r="O149" s="4"/>
-      <c r="P149" s="5"/>
-      <c r="R149" s="4"/>
-      <c r="S149" s="5"/>
-      <c r="V149" s="5"/>
-      <c r="Y149" s="3"/>
-      <c r="AB149" s="5"/>
-      <c r="AE149" s="5"/>
-      <c r="AH149" s="5"/>
-      <c r="AL149" s="5"/>
-      <c r="AS149" s="5"/>
-      <c r="AY149" s="5"/>
-      <c r="BH149" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI149" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>3521102098522</v>
-      </c>
-      <c r="B150" s="2">
-        <v>44471</v>
-      </c>
-      <c r="C150" t="s">
-        <v>245</v>
-      </c>
-      <c r="D150" s="2">
-        <v>24880</v>
-      </c>
-      <c r="E150" s="2">
-        <v>44465</v>
-      </c>
-      <c r="F150" t="s">
-        <v>230</v>
-      </c>
-      <c r="G150">
-        <v>2102716654</v>
-      </c>
-      <c r="H150" s="2">
-        <v>44473</v>
-      </c>
-      <c r="I150" t="s">
-        <v>3</v>
-      </c>
-      <c r="M150" s="3"/>
-      <c r="O150" s="4"/>
-      <c r="P150" s="5"/>
-      <c r="R150" s="4"/>
-      <c r="S150" s="5"/>
-      <c r="V150" s="5"/>
-      <c r="Y150" s="3"/>
-      <c r="AB150" s="5"/>
-      <c r="AE150" s="5"/>
-      <c r="AH150" s="5"/>
-      <c r="AL150" s="5"/>
-      <c r="AS150" s="5"/>
-      <c r="AY150" s="5"/>
-      <c r="BD150" t="s">
-        <v>6</v>
-      </c>
-      <c r="BE150" t="s">
-        <v>14</v>
-      </c>
-      <c r="BF150" s="2">
-        <v>44475</v>
-      </c>
-      <c r="BG150" t="s">
-        <v>245</v>
-      </c>
-      <c r="BH150" t="s">
-        <v>7</v>
-      </c>
-      <c r="BI150" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>3521104287602</v>
-      </c>
-      <c r="B151" s="2">
-        <v>44499</v>
-      </c>
-      <c r="C151" t="s">
-        <v>246</v>
-      </c>
-      <c r="D151" s="2">
-        <v>27961</v>
-      </c>
-      <c r="E151" s="2">
-        <v>44496</v>
-      </c>
-      <c r="F151" t="s">
-        <v>8</v>
-      </c>
-      <c r="J151" s="2">
-        <v>44499</v>
-      </c>
-      <c r="K151" t="s">
-        <v>12</v>
-      </c>
-      <c r="L151" t="s">
-        <v>9</v>
-      </c>
-      <c r="M151" s="3"/>
-      <c r="O151" s="4"/>
-      <c r="P151" s="5"/>
-      <c r="R151" s="4"/>
-      <c r="S151" s="5"/>
-      <c r="V151" s="5"/>
-      <c r="Y151" s="3"/>
-      <c r="AB151" s="5"/>
-      <c r="AE151" s="5"/>
-      <c r="AH151" s="5"/>
-      <c r="AL151" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM151" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN151" s="2">
-        <v>44499</v>
-      </c>
-      <c r="AO151" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AS151" s="5"/>
-      <c r="AY151" s="5"/>
-      <c r="BD151" t="s">
-        <v>13</v>
-      </c>
-      <c r="BE151" t="s">
-        <v>26</v>
-      </c>
-      <c r="BF151" s="2">
-        <v>44566</v>
-      </c>
-      <c r="BH151" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI151" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:BI151" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:BI125"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9653,7 +8220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
